--- a/raw_data/20200818_saline/20200818_Sensor2_Test_78.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor2_Test_78.xlsx
@@ -1,643 +1,1059 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D3D00BD-6444-4479-A74C-6AEE9F699295}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>69669.677848</v>
+        <v>69669.677848000007</v>
       </c>
       <c r="B2" s="1">
-        <v>19.352688</v>
+        <v>19.352688000000001</v>
       </c>
       <c r="C2" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="D2" s="1">
-        <v>-300.065000</v>
+        <v>-300.065</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>69680.100813</v>
+        <v>69680.100812999997</v>
       </c>
       <c r="G2" s="1">
         <v>19.355584</v>
       </c>
       <c r="H2" s="1">
-        <v>1269.600000</v>
+        <v>1269.5999999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-260.579000</v>
+        <v>-260.57900000000001</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>69690.884337</v>
+        <v>69690.884336999996</v>
       </c>
       <c r="L2" s="1">
-        <v>19.358579</v>
+        <v>19.358578999999999</v>
       </c>
       <c r="M2" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N2" s="1">
-        <v>-201.169000</v>
+        <v>-201.16900000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>69701.349918</v>
+        <v>69701.349918000007</v>
       </c>
       <c r="Q2" s="1">
-        <v>19.361486</v>
+        <v>19.361485999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>1317.810000</v>
+        <v>1317.81</v>
       </c>
       <c r="S2" s="1">
-        <v>-184.414000</v>
+        <v>-184.41399999999999</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>69711.540689</v>
+        <v>69711.540689000001</v>
       </c>
       <c r="V2" s="1">
         <v>19.364317</v>
       </c>
       <c r="W2" s="1">
-        <v>1331.850000</v>
+        <v>1331.85</v>
       </c>
       <c r="X2" s="1">
-        <v>-171.585000</v>
+        <v>-171.58500000000001</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>69721.957171</v>
+        <v>69721.957171000002</v>
       </c>
       <c r="AA2" s="1">
-        <v>19.367210</v>
+        <v>19.36721</v>
       </c>
       <c r="AB2" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC2" s="1">
-        <v>-170.211000</v>
+        <v>-170.21100000000001</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>69732.504633</v>
+        <v>69732.504633000004</v>
       </c>
       <c r="AF2" s="1">
-        <v>19.370140</v>
+        <v>19.370139999999999</v>
       </c>
       <c r="AG2" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH2" s="1">
-        <v>-179.894000</v>
+        <v>-179.89400000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>69743.273241</v>
+        <v>69743.273241000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>19.373131</v>
+        <v>19.373131000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM2" s="1">
-        <v>-209.722000</v>
+        <v>-209.72200000000001</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>69753.535962</v>
+        <v>69753.535961999994</v>
       </c>
       <c r="AP2" s="1">
         <v>19.375982</v>
       </c>
       <c r="AQ2" s="1">
-        <v>1407.370000</v>
+        <v>1407.37</v>
       </c>
       <c r="AR2" s="1">
-        <v>-253.200000</v>
+        <v>-253.2</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>69764.340811</v>
+        <v>69764.340811000002</v>
       </c>
       <c r="AU2" s="1">
-        <v>19.378984</v>
+        <v>19.378983999999999</v>
       </c>
       <c r="AV2" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW2" s="1">
-        <v>-312.585000</v>
+        <v>-312.58499999999998</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>69775.123343</v>
+        <v>69775.123342999999</v>
       </c>
       <c r="AZ2" s="1">
-        <v>19.381979</v>
+        <v>19.381979000000001</v>
       </c>
       <c r="BA2" s="1">
-        <v>1452.420000</v>
+        <v>1452.42</v>
       </c>
       <c r="BB2" s="1">
-        <v>-364.012000</v>
+        <v>-364.012</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
         <v>69785.658895</v>
@@ -646,724 +1062,724 @@
         <v>19.384905</v>
       </c>
       <c r="BF2" s="1">
-        <v>1539.430000</v>
+        <v>1539.43</v>
       </c>
       <c r="BG2" s="1">
-        <v>-609.051000</v>
+        <v>-609.05100000000004</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>69796.707280</v>
+        <v>69796.707280000002</v>
       </c>
       <c r="BJ2" s="1">
         <v>19.387974</v>
       </c>
       <c r="BK2" s="1">
-        <v>1696.200000</v>
+        <v>1696.2</v>
       </c>
       <c r="BL2" s="1">
-        <v>-1046.930000</v>
+        <v>-1046.93</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>69807.868754</v>
+        <v>69807.868753999996</v>
       </c>
       <c r="BO2" s="1">
-        <v>19.391075</v>
+        <v>19.391075000000001</v>
       </c>
       <c r="BP2" s="1">
-        <v>1993.700000</v>
+        <v>1993.7</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-1801.890000</v>
+        <v>-1801.89</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>69820.108008</v>
+        <v>69820.108007999996</v>
       </c>
       <c r="BT2" s="1">
-        <v>19.394474</v>
+        <v>19.394473999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>2380.930000</v>
+        <v>2380.9299999999998</v>
       </c>
       <c r="BV2" s="1">
-        <v>-2668.420000</v>
+        <v>-2668.42</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>69830.921285</v>
+        <v>69830.921285000004</v>
       </c>
       <c r="BY2" s="1">
         <v>19.397478</v>
       </c>
       <c r="BZ2" s="1">
-        <v>2866.610000</v>
+        <v>2866.61</v>
       </c>
       <c r="CA2" s="1">
-        <v>-3612.020000</v>
+        <v>-3612.02</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>69841.506630</v>
+        <v>69841.506630000003</v>
       </c>
       <c r="CD2" s="1">
-        <v>19.400419</v>
+        <v>19.400418999999999</v>
       </c>
       <c r="CE2" s="1">
-        <v>4262.110000</v>
+        <v>4262.1099999999997</v>
       </c>
       <c r="CF2" s="1">
-        <v>-5868.030000</v>
+        <v>-5868.03</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>69670.032488</v>
+        <v>69670.032487999997</v>
       </c>
       <c r="B3" s="1">
-        <v>19.352787</v>
+        <v>19.352786999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D3" s="1">
-        <v>-300.094000</v>
+        <v>-300.09399999999999</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>69680.826457</v>
+        <v>69680.826457000003</v>
       </c>
       <c r="G3" s="1">
-        <v>19.355785</v>
+        <v>19.355785000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>1269.310000</v>
+        <v>1269.31</v>
       </c>
       <c r="I3" s="1">
-        <v>-260.594000</v>
+        <v>-260.59399999999999</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>69691.235502</v>
+        <v>69691.235501999996</v>
       </c>
       <c r="L3" s="1">
         <v>19.358677</v>
       </c>
       <c r="M3" s="1">
-        <v>1305.680000</v>
+        <v>1305.68</v>
       </c>
       <c r="N3" s="1">
-        <v>-201.148000</v>
+        <v>-201.148</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>69701.688654</v>
+        <v>69701.688653999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>19.361580</v>
+        <v>19.36158</v>
       </c>
       <c r="R3" s="1">
-        <v>1317.810000</v>
+        <v>1317.81</v>
       </c>
       <c r="S3" s="1">
-        <v>-184.438000</v>
+        <v>-184.43799999999999</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>69711.900785</v>
+        <v>69711.900785000005</v>
       </c>
       <c r="V3" s="1">
         <v>19.364417</v>
       </c>
       <c r="W3" s="1">
-        <v>1331.460000</v>
+        <v>1331.46</v>
       </c>
       <c r="X3" s="1">
-        <v>-171.622000</v>
+        <v>-171.62200000000001</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>69722.326691</v>
+        <v>69722.326690999995</v>
       </c>
       <c r="AA3" s="1">
-        <v>19.367313</v>
+        <v>19.367312999999999</v>
       </c>
       <c r="AB3" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC3" s="1">
-        <v>-170.188000</v>
+        <v>-170.18799999999999</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>69733.194532</v>
+        <v>69733.194531999994</v>
       </c>
       <c r="AF3" s="1">
-        <v>19.370332</v>
+        <v>19.370332000000001</v>
       </c>
       <c r="AG3" s="1">
-        <v>1363.410000</v>
+        <v>1363.41</v>
       </c>
       <c r="AH3" s="1">
-        <v>-179.840000</v>
+        <v>-179.84</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>69743.382212</v>
+        <v>69743.382211999997</v>
       </c>
       <c r="AK3" s="1">
-        <v>19.373162</v>
+        <v>19.373162000000001</v>
       </c>
       <c r="AL3" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM3" s="1">
-        <v>-209.717000</v>
+        <v>-209.71700000000001</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>69753.967978</v>
+        <v>69753.967978000001</v>
       </c>
       <c r="AP3" s="1">
-        <v>19.376102</v>
+        <v>19.376101999999999</v>
       </c>
       <c r="AQ3" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR3" s="1">
-        <v>-253.205000</v>
+        <v>-253.20500000000001</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>69764.710826</v>
+        <v>69764.710825999995</v>
       </c>
       <c r="AU3" s="1">
-        <v>19.379086</v>
+        <v>19.379086000000001</v>
       </c>
       <c r="AV3" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW3" s="1">
-        <v>-312.587000</v>
+        <v>-312.58699999999999</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>69775.483932</v>
+        <v>69775.483932000003</v>
       </c>
       <c r="AZ3" s="1">
-        <v>19.382079</v>
+        <v>19.382079000000001</v>
       </c>
       <c r="BA3" s="1">
-        <v>1452.460000</v>
+        <v>1452.46</v>
       </c>
       <c r="BB3" s="1">
-        <v>-364.055000</v>
+        <v>-364.05500000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>69786.059136</v>
+        <v>69786.059135999996</v>
       </c>
       <c r="BE3" s="1">
         <v>19.385016</v>
       </c>
       <c r="BF3" s="1">
-        <v>1539.430000</v>
+        <v>1539.43</v>
       </c>
       <c r="BG3" s="1">
-        <v>-609.088000</v>
+        <v>-609.08799999999997</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>69797.122931</v>
+        <v>69797.122931000005</v>
       </c>
       <c r="BJ3" s="1">
-        <v>19.388090</v>
+        <v>19.388089999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1696.110000</v>
+        <v>1696.11</v>
       </c>
       <c r="BL3" s="1">
-        <v>-1046.980000</v>
+        <v>-1046.98</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>69808.288338</v>
+        <v>69808.288337999998</v>
       </c>
       <c r="BO3" s="1">
-        <v>19.391191</v>
+        <v>19.391190999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1993.690000</v>
+        <v>1993.69</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-1802.140000</v>
+        <v>-1802.14</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>69820.299458</v>
+        <v>69820.299457999994</v>
       </c>
       <c r="BT3" s="1">
-        <v>19.394528</v>
+        <v>19.394528000000001</v>
       </c>
       <c r="BU3" s="1">
-        <v>2380.530000</v>
+        <v>2380.5300000000002</v>
       </c>
       <c r="BV3" s="1">
-        <v>-2668.600000</v>
+        <v>-2668.6</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>69831.039827</v>
+        <v>69831.039827000001</v>
       </c>
       <c r="BY3" s="1">
-        <v>19.397511</v>
+        <v>19.397511000000002</v>
       </c>
       <c r="BZ3" s="1">
-        <v>2865.970000</v>
+        <v>2865.97</v>
       </c>
       <c r="CA3" s="1">
-        <v>-3611.650000</v>
+        <v>-3611.65</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>69842.066390</v>
+        <v>69842.066390000007</v>
       </c>
       <c r="CD3" s="1">
-        <v>19.400574</v>
+        <v>19.400573999999999</v>
       </c>
       <c r="CE3" s="1">
-        <v>4273.780000</v>
+        <v>4273.78</v>
       </c>
       <c r="CF3" s="1">
-        <v>-5877.360000</v>
+        <v>-5877.36</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
         <v>69670.788686</v>
       </c>
       <c r="B4" s="1">
-        <v>19.352997</v>
+        <v>19.352996999999998</v>
       </c>
       <c r="C4" s="1">
-        <v>1245.680000</v>
+        <v>1245.68</v>
       </c>
       <c r="D4" s="1">
-        <v>-299.936000</v>
+        <v>-299.93599999999998</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>69681.172137</v>
+        <v>69681.172137000001</v>
       </c>
       <c r="G4" s="1">
         <v>19.355881</v>
       </c>
       <c r="H4" s="1">
-        <v>1270.450000</v>
+        <v>1270.45</v>
       </c>
       <c r="I4" s="1">
-        <v>-259.773000</v>
+        <v>-259.77300000000002</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>69691.581707</v>
+        <v>69691.581707000005</v>
       </c>
       <c r="L4" s="1">
-        <v>19.358773</v>
+        <v>19.358772999999999</v>
       </c>
       <c r="M4" s="1">
-        <v>1305.530000</v>
+        <v>1305.53</v>
       </c>
       <c r="N4" s="1">
-        <v>-201.212000</v>
+        <v>-201.21199999999999</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>69702.035855</v>
+        <v>69702.035854999995</v>
       </c>
       <c r="Q4" s="1">
         <v>19.361677</v>
       </c>
       <c r="R4" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S4" s="1">
-        <v>-184.331000</v>
+        <v>-184.33099999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>69712.551041</v>
+        <v>69712.551040999999</v>
       </c>
       <c r="V4" s="1">
-        <v>19.364598</v>
+        <v>19.364598000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X4" s="1">
-        <v>-171.458000</v>
+        <v>-171.458</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>69722.984919</v>
+        <v>69722.984918999995</v>
       </c>
       <c r="AA4" s="1">
-        <v>19.367496</v>
+        <v>19.367495999999999</v>
       </c>
       <c r="AB4" s="1">
-        <v>1349.910000</v>
+        <v>1349.91</v>
       </c>
       <c r="AC4" s="1">
-        <v>-170.113000</v>
+        <v>-170.113</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>69733.575498</v>
+        <v>69733.575498000006</v>
       </c>
       <c r="AF4" s="1">
         <v>19.370438</v>
       </c>
       <c r="AG4" s="1">
-        <v>1363.550000</v>
+        <v>1363.55</v>
       </c>
       <c r="AH4" s="1">
-        <v>-179.834000</v>
+        <v>-179.834</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>69743.721640</v>
+        <v>69743.721640000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>19.373256</v>
+        <v>19.373256000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM4" s="1">
-        <v>-209.741000</v>
+        <v>-209.74100000000001</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>69754.328569</v>
+        <v>69754.328569000005</v>
       </c>
       <c r="AP4" s="1">
-        <v>19.376202</v>
+        <v>19.376201999999999</v>
       </c>
       <c r="AQ4" s="1">
-        <v>1407.340000</v>
+        <v>1407.34</v>
       </c>
       <c r="AR4" s="1">
-        <v>-253.197000</v>
+        <v>-253.197</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>69765.074890</v>
+        <v>69765.074890000004</v>
       </c>
       <c r="AU4" s="1">
-        <v>19.379187</v>
+        <v>19.379187000000002</v>
       </c>
       <c r="AV4" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW4" s="1">
-        <v>-312.572000</v>
+        <v>-312.572</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>69775.843036</v>
+        <v>69775.843036000006</v>
       </c>
       <c r="AZ4" s="1">
-        <v>19.382179</v>
+        <v>19.382179000000001</v>
       </c>
       <c r="BA4" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB4" s="1">
-        <v>-364.031000</v>
+        <v>-364.03100000000001</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>69786.481266</v>
+        <v>69786.481266000003</v>
       </c>
       <c r="BE4" s="1">
-        <v>19.385134</v>
+        <v>19.385134000000001</v>
       </c>
       <c r="BF4" s="1">
-        <v>1539.430000</v>
+        <v>1539.43</v>
       </c>
       <c r="BG4" s="1">
-        <v>-609.081000</v>
+        <v>-609.08100000000002</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>69797.492446</v>
+        <v>69797.492446000004</v>
       </c>
       <c r="BJ4" s="1">
         <v>19.388192</v>
       </c>
       <c r="BK4" s="1">
-        <v>1696.060000</v>
+        <v>1696.06</v>
       </c>
       <c r="BL4" s="1">
-        <v>-1047.030000</v>
+        <v>-1047.03</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>69808.689638</v>
+        <v>69808.689637999996</v>
       </c>
       <c r="BO4" s="1">
-        <v>19.391303</v>
+        <v>19.391303000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1993.550000</v>
+        <v>1993.55</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-1802.170000</v>
+        <v>-1802.17</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>69820.726018</v>
+        <v>69820.726018000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>19.394646</v>
+        <v>19.394646000000002</v>
       </c>
       <c r="BU4" s="1">
-        <v>2380.260000</v>
+        <v>2380.2600000000002</v>
       </c>
       <c r="BV4" s="1">
-        <v>-2668.800000</v>
+        <v>-2668.8</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>69831.454980</v>
+        <v>69831.454979999995</v>
       </c>
       <c r="BY4" s="1">
-        <v>19.397626</v>
+        <v>19.397625999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>2866.260000</v>
+        <v>2866.26</v>
       </c>
       <c r="CA4" s="1">
-        <v>-3612.360000</v>
+        <v>-3612.36</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>69842.585236</v>
+        <v>69842.585235999999</v>
       </c>
       <c r="CD4" s="1">
-        <v>19.400718</v>
+        <v>19.400718000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>4278.870000</v>
+        <v>4278.87</v>
       </c>
       <c r="CF4" s="1">
-        <v>-5859.090000</v>
+        <v>-5859.09</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>69671.132156</v>
+        <v>69671.132156000007</v>
       </c>
       <c r="B5" s="1">
         <v>19.353092</v>
       </c>
       <c r="C5" s="1">
-        <v>1245.820000</v>
+        <v>1245.82</v>
       </c>
       <c r="D5" s="1">
-        <v>-300.182000</v>
+        <v>-300.18200000000002</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>69681.519868</v>
+        <v>69681.519868000003</v>
       </c>
       <c r="G5" s="1">
         <v>19.355978</v>
       </c>
       <c r="H5" s="1">
-        <v>1270.740000</v>
+        <v>1270.74</v>
       </c>
       <c r="I5" s="1">
-        <v>-260.895000</v>
+        <v>-260.89499999999998</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>69692.234410</v>
+        <v>69692.234410000005</v>
       </c>
       <c r="L5" s="1">
-        <v>19.358954</v>
+        <v>19.358954000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>1305.460000</v>
+        <v>1305.46</v>
       </c>
       <c r="N5" s="1">
-        <v>-201.732000</v>
+        <v>-201.732</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>69702.694575</v>
+        <v>69702.694575000001</v>
       </c>
       <c r="Q5" s="1">
-        <v>19.361860</v>
+        <v>19.36186</v>
       </c>
       <c r="R5" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S5" s="1">
-        <v>-184.244000</v>
+        <v>-184.244</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>69712.928527</v>
+        <v>69712.928526999996</v>
       </c>
       <c r="V5" s="1">
-        <v>19.364702</v>
+        <v>19.364702000000001</v>
       </c>
       <c r="W5" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X5" s="1">
-        <v>-171.685000</v>
+        <v>-171.685</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>69723.373285</v>
+        <v>69723.373284999994</v>
       </c>
       <c r="AA5" s="1">
         <v>19.367604</v>
       </c>
       <c r="AB5" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC5" s="1">
-        <v>-170.023000</v>
+        <v>-170.023</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>69733.919685</v>
+        <v>69733.919685000001</v>
       </c>
       <c r="AF5" s="1">
-        <v>19.370533</v>
+        <v>19.370533000000002</v>
       </c>
       <c r="AG5" s="1">
-        <v>1363.460000</v>
+        <v>1363.46</v>
       </c>
       <c r="AH5" s="1">
-        <v>-179.908000</v>
+        <v>-179.90799999999999</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>69744.070310</v>
+        <v>69744.070309999996</v>
       </c>
       <c r="AK5" s="1">
-        <v>19.373353</v>
+        <v>19.373353000000002</v>
       </c>
       <c r="AL5" s="1">
-        <v>1384.930000</v>
+        <v>1384.93</v>
       </c>
       <c r="AM5" s="1">
-        <v>-209.709000</v>
+        <v>-209.709</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
         <v>69754.689692</v>
@@ -1372,996 +1788,996 @@
         <v>19.376303</v>
       </c>
       <c r="AQ5" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR5" s="1">
-        <v>-253.217000</v>
+        <v>-253.21700000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>69765.500458</v>
+        <v>69765.500457999995</v>
       </c>
       <c r="AU5" s="1">
         <v>19.379306</v>
       </c>
       <c r="AV5" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW5" s="1">
-        <v>-312.541000</v>
+        <v>-312.541</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>69776.274556</v>
+        <v>69776.274556000004</v>
       </c>
       <c r="AZ5" s="1">
-        <v>19.382298</v>
+        <v>19.382297999999999</v>
       </c>
       <c r="BA5" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB5" s="1">
-        <v>-364.050000</v>
+        <v>-364.05</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>69786.780350</v>
+        <v>69786.780350000001</v>
       </c>
       <c r="BE5" s="1">
-        <v>19.385217</v>
+        <v>19.385217000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG5" s="1">
-        <v>-609.081000</v>
+        <v>-609.08100000000002</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>69797.870863</v>
+        <v>69797.870863000004</v>
       </c>
       <c r="BJ5" s="1">
-        <v>19.388297</v>
+        <v>19.388297000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1696.090000</v>
+        <v>1696.09</v>
       </c>
       <c r="BL5" s="1">
-        <v>-1047.010000</v>
+        <v>-1047.01</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>69809.083921</v>
+        <v>69809.083920999998</v>
       </c>
       <c r="BO5" s="1">
-        <v>19.391412</v>
+        <v>19.391411999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1993.440000</v>
+        <v>1993.44</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-1802.350000</v>
+        <v>-1802.35</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>69821.140209</v>
+        <v>69821.140209000005</v>
       </c>
       <c r="BT5" s="1">
-        <v>19.394761</v>
+        <v>19.394760999999999</v>
       </c>
       <c r="BU5" s="1">
-        <v>2380.270000</v>
+        <v>2380.27</v>
       </c>
       <c r="BV5" s="1">
-        <v>-2668.930000</v>
+        <v>-2668.93</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>69831.914275</v>
+        <v>69831.914275000003</v>
       </c>
       <c r="BY5" s="1">
-        <v>19.397754</v>
+        <v>19.397753999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>2866.200000</v>
+        <v>2866.2</v>
       </c>
       <c r="CA5" s="1">
-        <v>-3611.820000</v>
+        <v>-3611.82</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>69843.125875</v>
+        <v>69843.125874999998</v>
       </c>
       <c r="CD5" s="1">
-        <v>19.400868</v>
+        <v>19.400867999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>4262.610000</v>
+        <v>4262.6099999999997</v>
       </c>
       <c r="CF5" s="1">
-        <v>-5872.490000</v>
+        <v>-5872.49</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>69671.445095</v>
+        <v>69671.445095000003</v>
       </c>
       <c r="B6" s="1">
-        <v>19.353179</v>
+        <v>19.353179000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>1245.230000</v>
+        <v>1245.23</v>
       </c>
       <c r="D6" s="1">
-        <v>-300.032000</v>
+        <v>-300.03199999999998</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>69682.180505</v>
+        <v>69682.180504999997</v>
       </c>
       <c r="G6" s="1">
         <v>19.356161</v>
       </c>
       <c r="H6" s="1">
-        <v>1269.510000</v>
+        <v>1269.51</v>
       </c>
       <c r="I6" s="1">
-        <v>-259.874000</v>
+        <v>-259.87400000000002</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>69692.618810</v>
+        <v>69692.61881</v>
       </c>
       <c r="L6" s="1">
-        <v>19.359061</v>
+        <v>19.359061000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N6" s="1">
-        <v>-201.225000</v>
+        <v>-201.22499999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>69703.080924</v>
+        <v>69703.080923999994</v>
       </c>
       <c r="Q6" s="1">
         <v>19.361967</v>
       </c>
       <c r="R6" s="1">
-        <v>1317.800000</v>
+        <v>1317.8</v>
       </c>
       <c r="S6" s="1">
-        <v>-184.302000</v>
+        <v>-184.30199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>69713.272718</v>
+        <v>69713.272717999993</v>
       </c>
       <c r="V6" s="1">
         <v>19.364798</v>
       </c>
       <c r="W6" s="1">
-        <v>1331.690000</v>
+        <v>1331.69</v>
       </c>
       <c r="X6" s="1">
-        <v>-171.552000</v>
+        <v>-171.55199999999999</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>69723.720486</v>
+        <v>69723.720486000006</v>
       </c>
       <c r="AA6" s="1">
-        <v>19.367700</v>
+        <v>19.367699999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC6" s="1">
-        <v>-170.015000</v>
+        <v>-170.01499999999999</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>69734.260963</v>
+        <v>69734.260962999993</v>
       </c>
       <c r="AF6" s="1">
         <v>19.370628</v>
       </c>
       <c r="AG6" s="1">
-        <v>1363.560000</v>
+        <v>1363.56</v>
       </c>
       <c r="AH6" s="1">
-        <v>-179.956000</v>
+        <v>-179.95599999999999</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
-        <v>69744.495914</v>
+        <v>69744.495913999999</v>
       </c>
       <c r="AK6" s="1">
-        <v>19.373471</v>
+        <v>19.373470999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>1384.970000</v>
+        <v>1384.97</v>
       </c>
       <c r="AM6" s="1">
-        <v>-209.727000</v>
+        <v>-209.727</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>69755.116248</v>
+        <v>69755.116248000006</v>
       </c>
       <c r="AP6" s="1">
-        <v>19.376421</v>
+        <v>19.376421000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>1407.350000</v>
+        <v>1407.35</v>
       </c>
       <c r="AR6" s="1">
-        <v>-253.203000</v>
+        <v>-253.203</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>69765.803019</v>
+        <v>69765.803018999999</v>
       </c>
       <c r="AU6" s="1">
-        <v>19.379390</v>
+        <v>19.379390000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW6" s="1">
-        <v>-312.542000</v>
+        <v>-312.54199999999997</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>69776.559793</v>
+        <v>69776.559792999993</v>
       </c>
       <c r="AZ6" s="1">
-        <v>19.382378</v>
+        <v>19.382377999999999</v>
       </c>
       <c r="BA6" s="1">
-        <v>1452.470000</v>
+        <v>1452.47</v>
       </c>
       <c r="BB6" s="1">
-        <v>-364.088000</v>
+        <v>-364.08800000000002</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>69787.143885</v>
+        <v>69787.143884999998</v>
       </c>
       <c r="BE6" s="1">
-        <v>19.385318</v>
+        <v>19.385318000000002</v>
       </c>
       <c r="BF6" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG6" s="1">
-        <v>-609.032000</v>
+        <v>-609.03200000000004</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>69798.246831</v>
+        <v>69798.246830999997</v>
       </c>
       <c r="BJ6" s="1">
-        <v>19.388402</v>
+        <v>19.388401999999999</v>
       </c>
       <c r="BK6" s="1">
-        <v>1696.030000</v>
+        <v>1696.03</v>
       </c>
       <c r="BL6" s="1">
-        <v>-1047.000000</v>
+        <v>-1047</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>69809.507503</v>
+        <v>69809.507503000001</v>
       </c>
       <c r="BO6" s="1">
-        <v>19.391530</v>
+        <v>19.391529999999999</v>
       </c>
       <c r="BP6" s="1">
-        <v>1993.470000</v>
+        <v>1993.47</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-1802.110000</v>
+        <v>-1802.11</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>69821.569713</v>
+        <v>69821.569713000004</v>
       </c>
       <c r="BT6" s="1">
-        <v>19.394880</v>
+        <v>19.394880000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>2380.330000</v>
+        <v>2380.33</v>
       </c>
       <c r="BV6" s="1">
-        <v>-2669.110000</v>
+        <v>-2669.11</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>69832.361171</v>
+        <v>69832.361170999997</v>
       </c>
       <c r="BY6" s="1">
-        <v>19.397878</v>
+        <v>19.397877999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>2865.790000</v>
+        <v>2865.79</v>
       </c>
       <c r="CA6" s="1">
-        <v>-3611.710000</v>
+        <v>-3611.71</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>69843.664002</v>
+        <v>69843.664002000005</v>
       </c>
       <c r="CD6" s="1">
-        <v>19.401018</v>
+        <v>19.401018000000001</v>
       </c>
       <c r="CE6" s="1">
-        <v>4284.830000</v>
+        <v>4284.83</v>
       </c>
       <c r="CF6" s="1">
-        <v>-5864.290000</v>
+        <v>-5864.29</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>69672.127590</v>
+        <v>69672.127590000004</v>
       </c>
       <c r="B7" s="1">
-        <v>19.353369</v>
+        <v>19.353369000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>1245.600000</v>
+        <v>1245.5999999999999</v>
       </c>
       <c r="D7" s="1">
-        <v>-300.187000</v>
+        <v>-300.18700000000001</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>69682.549063</v>
+        <v>69682.549062999999</v>
       </c>
       <c r="G7" s="1">
-        <v>19.356264</v>
+        <v>19.356263999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>1270.150000</v>
+        <v>1270.1500000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-260.074000</v>
+        <v>-260.07400000000001</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>69692.963565</v>
+        <v>69692.963564999998</v>
       </c>
       <c r="L7" s="1">
         <v>19.359157</v>
       </c>
       <c r="M7" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N7" s="1">
-        <v>-201.308000</v>
+        <v>-201.30799999999999</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>69703.428621</v>
+        <v>69703.428620999999</v>
       </c>
       <c r="Q7" s="1">
         <v>19.362064</v>
       </c>
       <c r="R7" s="1">
-        <v>1317.780000</v>
+        <v>1317.78</v>
       </c>
       <c r="S7" s="1">
-        <v>-184.362000</v>
+        <v>-184.36199999999999</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>69713.616944</v>
+        <v>69713.616943999994</v>
       </c>
       <c r="V7" s="1">
         <v>19.364894</v>
       </c>
       <c r="W7" s="1">
-        <v>1331.540000</v>
+        <v>1331.54</v>
       </c>
       <c r="X7" s="1">
-        <v>-171.610000</v>
+        <v>-171.61</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>69724.068640</v>
+        <v>69724.068639999998</v>
       </c>
       <c r="AA7" s="1">
-        <v>19.367797</v>
+        <v>19.367796999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>1349.820000</v>
+        <v>1349.82</v>
       </c>
       <c r="AC7" s="1">
-        <v>-170.097000</v>
+        <v>-170.09700000000001</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>69734.680082</v>
+        <v>69734.680082000006</v>
       </c>
       <c r="AF7" s="1">
-        <v>19.370744</v>
+        <v>19.370743999999998</v>
       </c>
       <c r="AG7" s="1">
-        <v>1363.400000</v>
+        <v>1363.4</v>
       </c>
       <c r="AH7" s="1">
-        <v>-179.945000</v>
+        <v>-179.94499999999999</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>69744.776119</v>
+        <v>69744.776119000002</v>
       </c>
       <c r="AK7" s="1">
-        <v>19.373549</v>
+        <v>19.373549000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM7" s="1">
-        <v>-209.718000</v>
+        <v>-209.71799999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>69755.405911</v>
+        <v>69755.405910999994</v>
       </c>
       <c r="AP7" s="1">
-        <v>19.376502</v>
+        <v>19.376501999999999</v>
       </c>
       <c r="AQ7" s="1">
-        <v>1407.340000</v>
+        <v>1407.34</v>
       </c>
       <c r="AR7" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
         <v>69766.167577</v>
       </c>
       <c r="AU7" s="1">
-        <v>19.379491</v>
+        <v>19.379491000000002</v>
       </c>
       <c r="AV7" s="1">
-        <v>1432.670000</v>
+        <v>1432.67</v>
       </c>
       <c r="AW7" s="1">
-        <v>-312.550000</v>
+        <v>-312.55</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>69776.915387</v>
+        <v>69776.915387000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>19.382476</v>
       </c>
       <c r="BA7" s="1">
-        <v>1452.480000</v>
+        <v>1452.48</v>
       </c>
       <c r="BB7" s="1">
-        <v>-364.022000</v>
+        <v>-364.02199999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>69787.503485</v>
+        <v>69787.503484999994</v>
       </c>
       <c r="BE7" s="1">
-        <v>19.385418</v>
+        <v>19.385418000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1539.450000</v>
+        <v>1539.45</v>
       </c>
       <c r="BG7" s="1">
-        <v>-609.090000</v>
+        <v>-609.09</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>69799.019134</v>
+        <v>69799.019134000002</v>
       </c>
       <c r="BJ7" s="1">
-        <v>19.388616</v>
+        <v>19.388615999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1696.000000</v>
+        <v>1696</v>
       </c>
       <c r="BL7" s="1">
-        <v>-1046.900000</v>
+        <v>-1046.9000000000001</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>69810.326398</v>
+        <v>69810.326398000005</v>
       </c>
       <c r="BO7" s="1">
-        <v>19.391757</v>
+        <v>19.391756999999998</v>
       </c>
       <c r="BP7" s="1">
-        <v>1993.290000</v>
+        <v>1993.29</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-1802.160000</v>
+        <v>-1802.16</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>69821.997760</v>
+        <v>69821.997759999998</v>
       </c>
       <c r="BT7" s="1">
-        <v>19.394999</v>
+        <v>19.394998999999999</v>
       </c>
       <c r="BU7" s="1">
-        <v>2380.270000</v>
+        <v>2380.27</v>
       </c>
       <c r="BV7" s="1">
-        <v>-2668.930000</v>
+        <v>-2668.93</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>69832.783267</v>
+        <v>69832.783267000006</v>
       </c>
       <c r="BY7" s="1">
-        <v>19.397995</v>
+        <v>19.397995000000002</v>
       </c>
       <c r="BZ7" s="1">
-        <v>2865.650000</v>
+        <v>2865.65</v>
       </c>
       <c r="CA7" s="1">
-        <v>-3612.300000</v>
+        <v>-3612.3</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>69844.205147</v>
+        <v>69844.205147000001</v>
       </c>
       <c r="CD7" s="1">
-        <v>19.401168</v>
+        <v>19.401167999999998</v>
       </c>
       <c r="CE7" s="1">
-        <v>4265.540000</v>
+        <v>4265.54</v>
       </c>
       <c r="CF7" s="1">
-        <v>-5862.910000</v>
+        <v>-5862.91</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>69672.475813</v>
+        <v>69672.475812999997</v>
       </c>
       <c r="B8" s="1">
-        <v>19.353466</v>
+        <v>19.353466000000001</v>
       </c>
       <c r="C8" s="1">
-        <v>1245.700000</v>
+        <v>1245.7</v>
       </c>
       <c r="D8" s="1">
-        <v>-299.896000</v>
+        <v>-299.89600000000002</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>69682.894247</v>
+        <v>69682.894247000004</v>
       </c>
       <c r="G8" s="1">
-        <v>19.356360</v>
+        <v>19.356359999999999</v>
       </c>
       <c r="H8" s="1">
-        <v>1270.470000</v>
+        <v>1270.47</v>
       </c>
       <c r="I8" s="1">
-        <v>-260.334000</v>
+        <v>-260.334</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>69693.309738</v>
+        <v>69693.309737999996</v>
       </c>
       <c r="L8" s="1">
-        <v>19.359253</v>
+        <v>19.359252999999999</v>
       </c>
       <c r="M8" s="1">
-        <v>1305.340000</v>
+        <v>1305.3399999999999</v>
       </c>
       <c r="N8" s="1">
-        <v>-201.381000</v>
+        <v>-201.381</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>69703.779790</v>
+        <v>69703.779790000001</v>
       </c>
       <c r="Q8" s="1">
         <v>19.362161</v>
       </c>
       <c r="R8" s="1">
-        <v>1317.750000</v>
+        <v>1317.75</v>
       </c>
       <c r="S8" s="1">
-        <v>-184.460000</v>
+        <v>-184.46</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>69714.045022</v>
+        <v>69714.045022000006</v>
       </c>
       <c r="V8" s="1">
-        <v>19.365013</v>
+        <v>19.365013000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>1331.750000</v>
+        <v>1331.75</v>
       </c>
       <c r="X8" s="1">
-        <v>-171.635000</v>
+        <v>-171.63499999999999</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>69724.644036</v>
+        <v>69724.644035999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>19.367957</v>
+        <v>19.367957000000001</v>
       </c>
       <c r="AB8" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC8" s="1">
-        <v>-170.151000</v>
+        <v>-170.15100000000001</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>69734.974678</v>
+        <v>69734.974677999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>19.370826</v>
+        <v>19.370826000000001</v>
       </c>
       <c r="AG8" s="1">
-        <v>1363.200000</v>
+        <v>1363.2</v>
       </c>
       <c r="AH8" s="1">
-        <v>-179.914000</v>
+        <v>-179.91399999999999</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>69745.123348</v>
+        <v>69745.123347999994</v>
       </c>
       <c r="AK8" s="1">
         <v>19.373645</v>
       </c>
       <c r="AL8" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM8" s="1">
-        <v>-209.719000</v>
+        <v>-209.71899999999999</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>69755.768455</v>
+        <v>69755.768454999998</v>
       </c>
       <c r="AP8" s="1">
-        <v>19.376602</v>
+        <v>19.376601999999998</v>
       </c>
       <c r="AQ8" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR8" s="1">
-        <v>-253.207000</v>
+        <v>-253.20699999999999</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>69766.533633</v>
+        <v>69766.533632999999</v>
       </c>
       <c r="AU8" s="1">
         <v>19.379593</v>
       </c>
       <c r="AV8" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW8" s="1">
-        <v>-312.523000</v>
+        <v>-312.52300000000002</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>69777.279212</v>
+        <v>69777.279211999994</v>
       </c>
       <c r="AZ8" s="1">
-        <v>19.382578</v>
+        <v>19.382577999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1452.480000</v>
+        <v>1452.48</v>
       </c>
       <c r="BB8" s="1">
-        <v>-364.018000</v>
+        <v>-364.01799999999997</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>69788.225163</v>
+        <v>69788.225162999996</v>
       </c>
       <c r="BE8" s="1">
-        <v>19.385618</v>
+        <v>19.385618000000001</v>
       </c>
       <c r="BF8" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG8" s="1">
-        <v>-609.055000</v>
+        <v>-609.05499999999995</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>69799.394604</v>
+        <v>69799.394604000001</v>
       </c>
       <c r="BJ8" s="1">
         <v>19.388721</v>
       </c>
       <c r="BK8" s="1">
-        <v>1696.030000</v>
+        <v>1696.03</v>
       </c>
       <c r="BL8" s="1">
-        <v>-1046.960000</v>
+        <v>-1046.96</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>69810.743038</v>
+        <v>69810.743038000001</v>
       </c>
       <c r="BO8" s="1">
         <v>19.391873</v>
       </c>
       <c r="BP8" s="1">
-        <v>1993.280000</v>
+        <v>1993.28</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-1802.090000</v>
+        <v>-1802.09</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>69822.412446</v>
+        <v>69822.412446000002</v>
       </c>
       <c r="BT8" s="1">
-        <v>19.395115</v>
+        <v>19.395115000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>2380.210000</v>
+        <v>2380.21</v>
       </c>
       <c r="BV8" s="1">
-        <v>-2668.890000</v>
+        <v>-2668.89</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>69833.516882</v>
+        <v>69833.516881999996</v>
       </c>
       <c r="BY8" s="1">
-        <v>19.398199</v>
+        <v>19.398199000000002</v>
       </c>
       <c r="BZ8" s="1">
-        <v>2865.890000</v>
+        <v>2865.89</v>
       </c>
       <c r="CA8" s="1">
-        <v>-3612.620000</v>
+        <v>-3612.62</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>69845.044401</v>
+        <v>69845.044401000006</v>
       </c>
       <c r="CD8" s="1">
         <v>19.401401</v>
       </c>
       <c r="CE8" s="1">
-        <v>4279.440000</v>
+        <v>4279.4399999999996</v>
       </c>
       <c r="CF8" s="1">
-        <v>-5861.710000</v>
+        <v>-5861.71</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>69672.819012</v>
+        <v>69672.819012000007</v>
       </c>
       <c r="B9" s="1">
-        <v>19.353561</v>
+        <v>19.353560999999999</v>
       </c>
       <c r="C9" s="1">
-        <v>1245.490000</v>
+        <v>1245.49</v>
       </c>
       <c r="D9" s="1">
-        <v>-299.675000</v>
+        <v>-299.67500000000001</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>69683.237975</v>
+        <v>69683.237974999996</v>
       </c>
       <c r="G9" s="1">
         <v>19.356455</v>
       </c>
       <c r="H9" s="1">
-        <v>1269.940000</v>
+        <v>1269.94</v>
       </c>
       <c r="I9" s="1">
-        <v>-260.518000</v>
+        <v>-260.51799999999997</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
-        <v>69693.742249</v>
+        <v>69693.742249000003</v>
       </c>
       <c r="L9" s="1">
-        <v>19.359373</v>
+        <v>19.359373000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>1305.490000</v>
+        <v>1305.49</v>
       </c>
       <c r="N9" s="1">
-        <v>-201.341000</v>
+        <v>-201.34100000000001</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>69704.202876</v>
+        <v>69704.202875999996</v>
       </c>
       <c r="Q9" s="1">
-        <v>19.362279</v>
+        <v>19.362279000000001</v>
       </c>
       <c r="R9" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S9" s="1">
-        <v>-184.445000</v>
+        <v>-184.44499999999999</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>69714.318287</v>
+        <v>69714.318287000002</v>
       </c>
       <c r="V9" s="1">
         <v>19.365088</v>
       </c>
       <c r="W9" s="1">
-        <v>1331.610000</v>
+        <v>1331.61</v>
       </c>
       <c r="X9" s="1">
-        <v>-171.699000</v>
+        <v>-171.69900000000001</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>69724.768000</v>
+        <v>69724.767999999996</v>
       </c>
       <c r="AA9" s="1">
         <v>19.367991</v>
       </c>
       <c r="AB9" s="1">
-        <v>1349.740000</v>
+        <v>1349.74</v>
       </c>
       <c r="AC9" s="1">
-        <v>-170.168000</v>
+        <v>-170.16800000000001</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>69735.319422</v>
@@ -2370,1358 +2786,1358 @@
         <v>19.370922</v>
       </c>
       <c r="AG9" s="1">
-        <v>1363.330000</v>
+        <v>1363.33</v>
       </c>
       <c r="AH9" s="1">
-        <v>-179.912000</v>
+        <v>-179.91200000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>69745.473029</v>
+        <v>69745.473029000001</v>
       </c>
       <c r="AK9" s="1">
-        <v>19.373743</v>
+        <v>19.373743000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>1384.900000</v>
+        <v>1384.9</v>
       </c>
       <c r="AM9" s="1">
-        <v>-209.680000</v>
+        <v>-209.68</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>69756.127095</v>
+        <v>69756.127095000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>19.376702</v>
+        <v>19.376702000000002</v>
       </c>
       <c r="AQ9" s="1">
-        <v>1407.350000</v>
+        <v>1407.35</v>
       </c>
       <c r="AR9" s="1">
-        <v>-253.197000</v>
+        <v>-253.197</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>69767.261782</v>
+        <v>69767.261782000001</v>
       </c>
       <c r="AU9" s="1">
-        <v>19.379795</v>
+        <v>19.379795000000001</v>
       </c>
       <c r="AV9" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW9" s="1">
-        <v>-312.552000</v>
+        <v>-312.55200000000002</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>69777.993194</v>
+        <v>69777.993193999995</v>
       </c>
       <c r="AZ9" s="1">
         <v>19.382776</v>
       </c>
       <c r="BA9" s="1">
-        <v>1452.460000</v>
+        <v>1452.46</v>
       </c>
       <c r="BB9" s="1">
-        <v>-364.024000</v>
+        <v>-364.024</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>69788.615019</v>
+        <v>69788.615019000004</v>
       </c>
       <c r="BE9" s="1">
-        <v>19.385726</v>
+        <v>19.385725999999998</v>
       </c>
       <c r="BF9" s="1">
-        <v>1539.410000</v>
+        <v>1539.41</v>
       </c>
       <c r="BG9" s="1">
-        <v>-609.043000</v>
+        <v>-609.04300000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>69799.768558</v>
+        <v>69799.768557999996</v>
       </c>
       <c r="BJ9" s="1">
-        <v>19.388825</v>
+        <v>19.388825000000001</v>
       </c>
       <c r="BK9" s="1">
-        <v>1695.970000</v>
+        <v>1695.97</v>
       </c>
       <c r="BL9" s="1">
-        <v>-1046.950000</v>
+        <v>-1046.95</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>69811.141821</v>
+        <v>69811.141820999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>19.391984</v>
+        <v>19.391984000000001</v>
       </c>
       <c r="BP9" s="1">
-        <v>1993.210000</v>
+        <v>1993.21</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-1802.240000</v>
+        <v>-1802.24</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>69823.146493</v>
+        <v>69823.146492999993</v>
       </c>
       <c r="BT9" s="1">
         <v>19.395318</v>
       </c>
       <c r="BU9" s="1">
-        <v>2380.480000</v>
+        <v>2380.48</v>
       </c>
       <c r="BV9" s="1">
-        <v>-2668.820000</v>
+        <v>-2668.82</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>69833.629936</v>
+        <v>69833.629935999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>19.398231</v>
+        <v>19.398230999999999</v>
       </c>
       <c r="BZ9" s="1">
-        <v>2865.850000</v>
+        <v>2865.85</v>
       </c>
       <c r="CA9" s="1">
-        <v>-3611.900000</v>
+        <v>-3611.9</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>69845.281488</v>
+        <v>69845.281487999993</v>
       </c>
       <c r="CD9" s="1">
         <v>19.401467</v>
       </c>
       <c r="CE9" s="1">
-        <v>4279.830000</v>
+        <v>4279.83</v>
       </c>
       <c r="CF9" s="1">
-        <v>-5859.690000</v>
+        <v>-5859.69</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>69673.248084</v>
+        <v>69673.248084000006</v>
       </c>
       <c r="B10" s="1">
-        <v>19.353680</v>
+        <v>19.353680000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>1245.320000</v>
+        <v>1245.32</v>
       </c>
       <c r="D10" s="1">
-        <v>-300.013000</v>
+        <v>-300.01299999999998</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
         <v>69683.655606</v>
       </c>
       <c r="G10" s="1">
-        <v>19.356571</v>
+        <v>19.356570999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>1270.610000</v>
+        <v>1270.6099999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-260.203000</v>
+        <v>-260.20299999999997</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>69694.018025</v>
+        <v>69694.018024999998</v>
       </c>
       <c r="L10" s="1">
-        <v>19.359449</v>
+        <v>19.359449000000001</v>
       </c>
       <c r="M10" s="1">
-        <v>1305.660000</v>
+        <v>1305.6600000000001</v>
       </c>
       <c r="N10" s="1">
-        <v>-201.646000</v>
+        <v>-201.64599999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>69704.483610</v>
+        <v>69704.483609999996</v>
       </c>
       <c r="Q10" s="1">
-        <v>19.362357</v>
+        <v>19.362356999999999</v>
       </c>
       <c r="R10" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S10" s="1">
-        <v>-184.346000</v>
+        <v>-184.346</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>69714.661550</v>
+        <v>69714.661550000004</v>
       </c>
       <c r="V10" s="1">
-        <v>19.365184</v>
+        <v>19.365183999999999</v>
       </c>
       <c r="W10" s="1">
-        <v>1331.560000</v>
+        <v>1331.56</v>
       </c>
       <c r="X10" s="1">
-        <v>-171.826000</v>
+        <v>-171.82599999999999</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>69725.114735</v>
+        <v>69725.114734999996</v>
       </c>
       <c r="AA10" s="1">
-        <v>19.368087</v>
+        <v>19.368086999999999</v>
       </c>
       <c r="AB10" s="1">
-        <v>1349.910000</v>
+        <v>1349.91</v>
       </c>
       <c r="AC10" s="1">
-        <v>-170.071000</v>
+        <v>-170.071</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>69735.661633</v>
+        <v>69735.661632999996</v>
       </c>
       <c r="AF10" s="1">
-        <v>19.371017</v>
+        <v>19.371016999999998</v>
       </c>
       <c r="AG10" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH10" s="1">
-        <v>-179.667000</v>
+        <v>-179.667</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>69746.170867</v>
+        <v>69746.170866999993</v>
       </c>
       <c r="AK10" s="1">
         <v>19.373936</v>
       </c>
       <c r="AL10" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM10" s="1">
-        <v>-209.703000</v>
+        <v>-209.703</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>69756.848246</v>
+        <v>69756.848245999994</v>
       </c>
       <c r="AP10" s="1">
-        <v>19.376902</v>
+        <v>19.376902000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR10" s="1">
-        <v>-253.194000</v>
+        <v>-253.19399999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>69767.653126</v>
+        <v>69767.653126000005</v>
       </c>
       <c r="AU10" s="1">
         <v>19.379904</v>
       </c>
       <c r="AV10" s="1">
-        <v>1432.680000</v>
+        <v>1432.68</v>
       </c>
       <c r="AW10" s="1">
-        <v>-312.557000</v>
+        <v>-312.55700000000002</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>69778.351800</v>
+        <v>69778.351800000004</v>
       </c>
       <c r="AZ10" s="1">
         <v>19.382876</v>
       </c>
       <c r="BA10" s="1">
-        <v>1452.470000</v>
+        <v>1452.47</v>
       </c>
       <c r="BB10" s="1">
-        <v>-364.016000</v>
+        <v>-364.01600000000002</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>69788.974619</v>
+        <v>69788.974619000001</v>
       </c>
       <c r="BE10" s="1">
-        <v>19.385826</v>
+        <v>19.385826000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1539.410000</v>
+        <v>1539.41</v>
       </c>
       <c r="BG10" s="1">
-        <v>-609.072000</v>
+        <v>-609.072</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>69800.460331</v>
+        <v>69800.460330999995</v>
       </c>
       <c r="BJ10" s="1">
-        <v>19.389017</v>
+        <v>19.389016999999999</v>
       </c>
       <c r="BK10" s="1">
-        <v>1696.010000</v>
+        <v>1696.01</v>
       </c>
       <c r="BL10" s="1">
-        <v>-1046.930000</v>
+        <v>-1046.93</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>69811.865522</v>
+        <v>69811.865521999993</v>
       </c>
       <c r="BO10" s="1">
-        <v>19.392185</v>
+        <v>19.392185000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1993.180000</v>
+        <v>1993.18</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-1802.060000</v>
+        <v>-1802.06</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
         <v>69823.267022</v>
       </c>
       <c r="BT10" s="1">
-        <v>19.395352</v>
+        <v>19.395351999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>2379.990000</v>
+        <v>2379.9899999999998</v>
       </c>
       <c r="BV10" s="1">
-        <v>-2668.710000</v>
+        <v>-2668.71</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>69834.077856</v>
+        <v>69834.077856000004</v>
       </c>
       <c r="BY10" s="1">
-        <v>19.398355</v>
+        <v>19.398354999999999</v>
       </c>
       <c r="BZ10" s="1">
-        <v>2866.230000</v>
+        <v>2866.23</v>
       </c>
       <c r="CA10" s="1">
-        <v>-3611.840000</v>
+        <v>-3611.84</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>69845.799778</v>
+        <v>69845.799778000001</v>
       </c>
       <c r="CD10" s="1">
-        <v>19.401611</v>
+        <v>19.401610999999999</v>
       </c>
       <c r="CE10" s="1">
-        <v>4262.470000</v>
+        <v>4262.47</v>
       </c>
       <c r="CF10" s="1">
-        <v>-5862.120000</v>
+        <v>-5862.12</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>69673.519399</v>
+        <v>69673.519398999997</v>
       </c>
       <c r="B11" s="1">
         <v>19.353755</v>
       </c>
       <c r="C11" s="1">
-        <v>1245.280000</v>
+        <v>1245.28</v>
       </c>
       <c r="D11" s="1">
-        <v>-300.208000</v>
+        <v>-300.20800000000003</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>69683.949763</v>
+        <v>69683.949762999997</v>
       </c>
       <c r="G11" s="1">
-        <v>19.356653</v>
+        <v>19.356653000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>1269.330000</v>
+        <v>1269.33</v>
       </c>
       <c r="I11" s="1">
-        <v>-260.114000</v>
+        <v>-260.11399999999998</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>69694.364267</v>
+        <v>69694.364266999997</v>
       </c>
       <c r="L11" s="1">
-        <v>19.359546</v>
+        <v>19.359546000000002</v>
       </c>
       <c r="M11" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N11" s="1">
-        <v>-201.505000</v>
+        <v>-201.505</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>69704.831803</v>
+        <v>69704.831802999994</v>
       </c>
       <c r="Q11" s="1">
-        <v>19.362453</v>
+        <v>19.362452999999999</v>
       </c>
       <c r="R11" s="1">
-        <v>1317.710000</v>
+        <v>1317.71</v>
       </c>
       <c r="S11" s="1">
-        <v>-184.285000</v>
+        <v>-184.285</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>69715.009212</v>
+        <v>69715.009212000004</v>
       </c>
       <c r="V11" s="1">
-        <v>19.365280</v>
+        <v>19.365279999999998</v>
       </c>
       <c r="W11" s="1">
-        <v>1331.600000</v>
+        <v>1331.6</v>
       </c>
       <c r="X11" s="1">
-        <v>-171.447000</v>
+        <v>-171.447</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>69725.813598</v>
+        <v>69725.813597999993</v>
       </c>
       <c r="AA11" s="1">
-        <v>19.368282</v>
+        <v>19.368282000000001</v>
       </c>
       <c r="AB11" s="1">
-        <v>1349.770000</v>
+        <v>1349.77</v>
       </c>
       <c r="AC11" s="1">
-        <v>-170.013000</v>
+        <v>-170.01300000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>69736.348593</v>
+        <v>69736.348593000002</v>
       </c>
       <c r="AF11" s="1">
-        <v>19.371208</v>
+        <v>19.371207999999999</v>
       </c>
       <c r="AG11" s="1">
-        <v>1363.480000</v>
+        <v>1363.48</v>
       </c>
       <c r="AH11" s="1">
-        <v>-179.898000</v>
+        <v>-179.898</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>69746.517602</v>
+        <v>69746.517602000007</v>
       </c>
       <c r="AK11" s="1">
-        <v>19.374033</v>
+        <v>19.374033000000001</v>
       </c>
       <c r="AL11" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM11" s="1">
-        <v>-209.676000</v>
+        <v>-209.67599999999999</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>69757.235652</v>
+        <v>69757.235652000003</v>
       </c>
       <c r="AP11" s="1">
-        <v>19.377010</v>
+        <v>19.377009999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR11" s="1">
-        <v>-253.252000</v>
+        <v>-253.25200000000001</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>69768.017193</v>
+        <v>69768.017193000007</v>
       </c>
       <c r="AU11" s="1">
-        <v>19.380005</v>
+        <v>19.380005000000001</v>
       </c>
       <c r="AV11" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW11" s="1">
-        <v>-312.545000</v>
+        <v>-312.54500000000002</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>69779.024408</v>
+        <v>69779.024407999997</v>
       </c>
       <c r="AZ11" s="1">
-        <v>19.383062</v>
+        <v>19.383061999999999</v>
       </c>
       <c r="BA11" s="1">
-        <v>1452.480000</v>
+        <v>1452.48</v>
       </c>
       <c r="BB11" s="1">
-        <v>-364.065000</v>
+        <v>-364.065</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>69789.648186</v>
+        <v>69789.648186000006</v>
       </c>
       <c r="BE11" s="1">
-        <v>19.386013</v>
+        <v>19.386012999999998</v>
       </c>
       <c r="BF11" s="1">
-        <v>1539.400000</v>
+        <v>1539.4</v>
       </c>
       <c r="BG11" s="1">
-        <v>-609.047000</v>
+        <v>-609.04700000000003</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>69800.927211</v>
+        <v>69800.927211000002</v>
       </c>
       <c r="BJ11" s="1">
         <v>19.389146</v>
       </c>
       <c r="BK11" s="1">
-        <v>1696.000000</v>
+        <v>1696</v>
       </c>
       <c r="BL11" s="1">
-        <v>-1046.920000</v>
+        <v>-1046.92</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>69811.983568</v>
+        <v>69811.983567999996</v>
       </c>
       <c r="BO11" s="1">
         <v>19.392218</v>
       </c>
       <c r="BP11" s="1">
-        <v>1993.320000</v>
+        <v>1993.32</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-1802.110000</v>
+        <v>-1802.11</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>69823.679726</v>
+        <v>69823.679726000002</v>
       </c>
       <c r="BT11" s="1">
         <v>19.395467</v>
       </c>
       <c r="BU11" s="1">
-        <v>2379.870000</v>
+        <v>2379.87</v>
       </c>
       <c r="BV11" s="1">
-        <v>-2668.790000</v>
+        <v>-2668.79</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>69834.507886</v>
+        <v>69834.507886000007</v>
       </c>
       <c r="BY11" s="1">
         <v>19.398474</v>
       </c>
       <c r="BZ11" s="1">
-        <v>2865.780000</v>
+        <v>2865.78</v>
       </c>
       <c r="CA11" s="1">
-        <v>-3611.480000</v>
+        <v>-3611.48</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>69846.320079</v>
+        <v>69846.320078999997</v>
       </c>
       <c r="CD11" s="1">
-        <v>19.401756</v>
+        <v>19.401755999999999</v>
       </c>
       <c r="CE11" s="1">
-        <v>4277.790000</v>
+        <v>4277.79</v>
       </c>
       <c r="CF11" s="1">
-        <v>-5873.590000</v>
+        <v>-5873.59</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>69673.863091</v>
+        <v>69673.863091000007</v>
       </c>
       <c r="B12" s="1">
-        <v>19.353851</v>
+        <v>19.353850999999999</v>
       </c>
       <c r="C12" s="1">
-        <v>1245.400000</v>
+        <v>1245.4000000000001</v>
       </c>
       <c r="D12" s="1">
-        <v>-299.801000</v>
+        <v>-299.80099999999999</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>69684.294454</v>
+        <v>69684.294454000003</v>
       </c>
       <c r="G12" s="1">
         <v>19.356748</v>
       </c>
       <c r="H12" s="1">
-        <v>1269.280000</v>
+        <v>1269.28</v>
       </c>
       <c r="I12" s="1">
-        <v>-261.086000</v>
+        <v>-261.08600000000001</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>69694.709980</v>
+        <v>69694.70998</v>
       </c>
       <c r="L12" s="1">
-        <v>19.359642</v>
+        <v>19.359642000000001</v>
       </c>
       <c r="M12" s="1">
-        <v>1305.460000</v>
+        <v>1305.46</v>
       </c>
       <c r="N12" s="1">
-        <v>-201.293000</v>
+        <v>-201.29300000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>69705.179498</v>
+        <v>69705.179497999998</v>
       </c>
       <c r="Q12" s="1">
-        <v>19.362550</v>
+        <v>19.362549999999999</v>
       </c>
       <c r="R12" s="1">
-        <v>1317.850000</v>
+        <v>1317.85</v>
       </c>
       <c r="S12" s="1">
-        <v>-184.257000</v>
+        <v>-184.25700000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>69715.694685</v>
+        <v>69715.694684999995</v>
       </c>
       <c r="V12" s="1">
-        <v>19.365471</v>
+        <v>19.365470999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>1331.570000</v>
+        <v>1331.57</v>
       </c>
       <c r="X12" s="1">
-        <v>-171.570000</v>
+        <v>-171.57</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>69726.161757</v>
+        <v>69726.161756999994</v>
       </c>
       <c r="AA12" s="1">
         <v>19.368378</v>
       </c>
       <c r="AB12" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC12" s="1">
-        <v>-170.121000</v>
+        <v>-170.12100000000001</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>69736.694304</v>
+        <v>69736.694304000004</v>
       </c>
       <c r="AF12" s="1">
-        <v>19.371304</v>
+        <v>19.371303999999999</v>
       </c>
       <c r="AG12" s="1">
-        <v>1363.400000</v>
+        <v>1363.4</v>
       </c>
       <c r="AH12" s="1">
-        <v>-179.890000</v>
+        <v>-179.89</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
         <v>69746.867283</v>
       </c>
       <c r="AK12" s="1">
-        <v>19.374130</v>
+        <v>19.374130000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>1384.960000</v>
+        <v>1384.96</v>
       </c>
       <c r="AM12" s="1">
-        <v>-209.716000</v>
+        <v>-209.71600000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>69757.617044</v>
+        <v>69757.617043999999</v>
       </c>
       <c r="AP12" s="1">
-        <v>19.377116</v>
+        <v>19.377116000000001</v>
       </c>
       <c r="AQ12" s="1">
-        <v>1407.320000</v>
+        <v>1407.32</v>
       </c>
       <c r="AR12" s="1">
-        <v>-253.218000</v>
+        <v>-253.21799999999999</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>69768.691717</v>
+        <v>69768.691716999994</v>
       </c>
       <c r="AU12" s="1">
-        <v>19.380192</v>
+        <v>19.380192000000001</v>
       </c>
       <c r="AV12" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW12" s="1">
-        <v>-312.529000</v>
+        <v>-312.529</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>69779.457433</v>
+        <v>69779.457433000003</v>
       </c>
       <c r="AZ12" s="1">
-        <v>19.383183</v>
+        <v>19.383182999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1452.430000</v>
+        <v>1452.43</v>
       </c>
       <c r="BB12" s="1">
-        <v>-364.009000</v>
+        <v>-364.00900000000001</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>69790.084171</v>
+        <v>69790.084170999995</v>
       </c>
       <c r="BE12" s="1">
-        <v>19.386134</v>
+        <v>19.386133999999998</v>
       </c>
       <c r="BF12" s="1">
-        <v>1539.440000</v>
+        <v>1539.44</v>
       </c>
       <c r="BG12" s="1">
-        <v>-609.046000</v>
+        <v>-609.04600000000005</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>69801.316076</v>
+        <v>69801.316076000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>19.389254</v>
+        <v>19.389254000000001</v>
       </c>
       <c r="BK12" s="1">
-        <v>1696.020000</v>
+        <v>1696.02</v>
       </c>
       <c r="BL12" s="1">
-        <v>-1046.970000</v>
+        <v>-1046.97</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>69812.381325</v>
+        <v>69812.381324999995</v>
       </c>
       <c r="BO12" s="1">
-        <v>19.392328</v>
+        <v>19.392327999999999</v>
       </c>
       <c r="BP12" s="1">
-        <v>1993.410000</v>
+        <v>1993.41</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-1802.160000</v>
+        <v>-1802.16</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>69824.112206</v>
+        <v>69824.112206000005</v>
       </c>
       <c r="BT12" s="1">
-        <v>19.395587</v>
+        <v>19.395586999999999</v>
       </c>
       <c r="BU12" s="1">
-        <v>2380.330000</v>
+        <v>2380.33</v>
       </c>
       <c r="BV12" s="1">
-        <v>-2668.920000</v>
+        <v>-2668.92</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>69834.929454</v>
+        <v>69834.929453999997</v>
       </c>
       <c r="BY12" s="1">
-        <v>19.398592</v>
+        <v>19.398592000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>2865.360000</v>
+        <v>2865.36</v>
       </c>
       <c r="CA12" s="1">
-        <v>-3612.240000</v>
+        <v>-3612.24</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>69846.859726</v>
+        <v>69846.859725999995</v>
       </c>
       <c r="CD12" s="1">
-        <v>19.401905</v>
+        <v>19.401904999999999</v>
       </c>
       <c r="CE12" s="1">
-        <v>4274.040000</v>
+        <v>4274.04</v>
       </c>
       <c r="CF12" s="1">
-        <v>-5854.880000</v>
+        <v>-5854.88</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>69674.201902</v>
+        <v>69674.201902000001</v>
       </c>
       <c r="B13" s="1">
         <v>19.353945</v>
       </c>
       <c r="C13" s="1">
-        <v>1245.490000</v>
+        <v>1245.49</v>
       </c>
       <c r="D13" s="1">
-        <v>-300.166000</v>
+        <v>-300.166</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>69684.636693</v>
+        <v>69684.636692999993</v>
       </c>
       <c r="G13" s="1">
-        <v>19.356844</v>
+        <v>19.356843999999999</v>
       </c>
       <c r="H13" s="1">
-        <v>1271.220000</v>
+        <v>1271.22</v>
       </c>
       <c r="I13" s="1">
-        <v>-260.102000</v>
+        <v>-260.10199999999998</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>69695.402359</v>
       </c>
       <c r="L13" s="1">
-        <v>19.359834</v>
+        <v>19.359833999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>1305.350000</v>
+        <v>1305.3499999999999</v>
       </c>
       <c r="N13" s="1">
-        <v>-201.423000</v>
+        <v>-201.423</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>69705.877381</v>
+        <v>69705.877380999998</v>
       </c>
       <c r="Q13" s="1">
-        <v>19.362744</v>
+        <v>19.362743999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>1317.800000</v>
+        <v>1317.8</v>
       </c>
       <c r="S13" s="1">
-        <v>-184.263000</v>
+        <v>-184.26300000000001</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>69716.038413</v>
+        <v>69716.038413000002</v>
       </c>
       <c r="V13" s="1">
-        <v>19.365566</v>
+        <v>19.365566000000001</v>
       </c>
       <c r="W13" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="X13" s="1">
-        <v>-171.668000</v>
+        <v>-171.66800000000001</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>69726.507965</v>
+        <v>69726.507964999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>19.368474</v>
+        <v>19.368473999999999</v>
       </c>
       <c r="AB13" s="1">
-        <v>1349.870000</v>
+        <v>1349.87</v>
       </c>
       <c r="AC13" s="1">
-        <v>-170.144000</v>
+        <v>-170.14400000000001</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>69737.038032</v>
+        <v>69737.038031999997</v>
       </c>
       <c r="AF13" s="1">
         <v>19.371399</v>
       </c>
       <c r="AG13" s="1">
-        <v>1363.390000</v>
+        <v>1363.39</v>
       </c>
       <c r="AH13" s="1">
-        <v>-179.869000</v>
+        <v>-179.869</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>69747.529409</v>
+        <v>69747.529408999995</v>
       </c>
       <c r="AK13" s="1">
-        <v>19.374314</v>
+        <v>19.374313999999998</v>
       </c>
       <c r="AL13" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM13" s="1">
-        <v>-209.721000</v>
+        <v>-209.721</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
         <v>69758.293588</v>
       </c>
       <c r="AP13" s="1">
-        <v>19.377304</v>
+        <v>19.377303999999999</v>
       </c>
       <c r="AQ13" s="1">
-        <v>1407.370000</v>
+        <v>1407.37</v>
       </c>
       <c r="AR13" s="1">
-        <v>-253.178000</v>
+        <v>-253.178</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>69769.146549</v>
+        <v>69769.146548999997</v>
       </c>
       <c r="AU13" s="1">
-        <v>19.380318</v>
+        <v>19.380317999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW13" s="1">
-        <v>-312.538000</v>
+        <v>-312.53800000000001</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>69779.815990</v>
+        <v>69779.815990000003</v>
       </c>
       <c r="AZ13" s="1">
-        <v>19.383282</v>
+        <v>19.383282000000001</v>
       </c>
       <c r="BA13" s="1">
-        <v>1452.430000</v>
+        <v>1452.43</v>
       </c>
       <c r="BB13" s="1">
-        <v>-364.045000</v>
+        <v>-364.04500000000002</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>69790.449758</v>
+        <v>69790.449758000002</v>
       </c>
       <c r="BE13" s="1">
         <v>19.386236</v>
       </c>
       <c r="BF13" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG13" s="1">
-        <v>-609.047000</v>
+        <v>-609.04700000000003</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>69801.691050</v>
+        <v>69801.691049999994</v>
       </c>
       <c r="BJ13" s="1">
-        <v>19.389359</v>
+        <v>19.389358999999999</v>
       </c>
       <c r="BK13" s="1">
-        <v>1695.940000</v>
+        <v>1695.94</v>
       </c>
       <c r="BL13" s="1">
-        <v>-1046.920000</v>
+        <v>-1046.92</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>69812.860955</v>
+        <v>69812.860954999996</v>
       </c>
       <c r="BO13" s="1">
-        <v>19.392461</v>
+        <v>19.392461000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1993.260000</v>
+        <v>1993.26</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-1802.140000</v>
+        <v>-1802.14</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>69824.538765</v>
+        <v>69824.538765000005</v>
       </c>
       <c r="BT13" s="1">
         <v>19.395705</v>
       </c>
       <c r="BU13" s="1">
-        <v>2379.710000</v>
+        <v>2379.71</v>
       </c>
       <c r="BV13" s="1">
-        <v>-2668.730000</v>
+        <v>-2668.73</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>69835.352045</v>
+        <v>69835.352045000007</v>
       </c>
       <c r="BY13" s="1">
         <v>19.398709</v>
       </c>
       <c r="BZ13" s="1">
-        <v>2866.130000</v>
+        <v>2866.13</v>
       </c>
       <c r="CA13" s="1">
-        <v>-3612.180000</v>
+        <v>-3612.18</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>69847.398382</v>
+        <v>69847.398381999999</v>
       </c>
       <c r="CD13" s="1">
-        <v>19.402055</v>
+        <v>19.402055000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>4268.460000</v>
+        <v>4268.46</v>
       </c>
       <c r="CF13" s="1">
-        <v>-5877.850000</v>
+        <v>-5877.85</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>69674.881377</v>
+        <v>69674.881376999998</v>
       </c>
       <c r="B14" s="1">
-        <v>19.354134</v>
+        <v>19.354133999999998</v>
       </c>
       <c r="C14" s="1">
-        <v>1245.610000</v>
+        <v>1245.6099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-299.970000</v>
+        <v>-299.97000000000003</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>69685.327620</v>
+        <v>69685.327619999996</v>
       </c>
       <c r="G14" s="1">
         <v>19.357035</v>
       </c>
       <c r="H14" s="1">
-        <v>1269.830000</v>
+        <v>1269.83</v>
       </c>
       <c r="I14" s="1">
-        <v>-260.121000</v>
+        <v>-260.12099999999998</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>69695.743608</v>
+        <v>69695.743608000004</v>
       </c>
       <c r="L14" s="1">
-        <v>19.359929</v>
+        <v>19.359929000000001</v>
       </c>
       <c r="M14" s="1">
-        <v>1305.320000</v>
+        <v>1305.32</v>
       </c>
       <c r="N14" s="1">
-        <v>-201.275000</v>
+        <v>-201.27500000000001</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>69706.224568</v>
+        <v>69706.224568000005</v>
       </c>
       <c r="Q14" s="1">
-        <v>19.362840</v>
+        <v>19.362839999999998</v>
       </c>
       <c r="R14" s="1">
-        <v>1317.830000</v>
+        <v>1317.83</v>
       </c>
       <c r="S14" s="1">
-        <v>-184.207000</v>
+        <v>-184.20699999999999</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>69716.381678</v>
+        <v>69716.381678000005</v>
       </c>
       <c r="V14" s="1">
         <v>19.365662</v>
       </c>
       <c r="W14" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X14" s="1">
-        <v>-171.576000</v>
+        <v>-171.57599999999999</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>69727.168638</v>
+        <v>69727.168638000003</v>
       </c>
       <c r="AA14" s="1">
         <v>19.368658</v>
       </c>
       <c r="AB14" s="1">
-        <v>1349.970000</v>
+        <v>1349.97</v>
       </c>
       <c r="AC14" s="1">
-        <v>-170.042000</v>
+        <v>-170.042</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>69737.686799</v>
+        <v>69737.686799000003</v>
       </c>
       <c r="AF14" s="1">
-        <v>19.371580</v>
+        <v>19.371580000000002</v>
       </c>
       <c r="AG14" s="1">
-        <v>1363.580000</v>
+        <v>1363.58</v>
       </c>
       <c r="AH14" s="1">
-        <v>-179.978000</v>
+        <v>-179.97800000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>69747.912321</v>
+        <v>69747.912320999996</v>
       </c>
       <c r="AK14" s="1">
-        <v>19.374420</v>
+        <v>19.374420000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM14" s="1">
-        <v>-209.687000</v>
+        <v>-209.68700000000001</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>69758.696845</v>
+        <v>69758.696844999999</v>
       </c>
       <c r="AP14" s="1">
         <v>19.377416</v>
       </c>
       <c r="AQ14" s="1">
-        <v>1407.390000</v>
+        <v>1407.39</v>
       </c>
       <c r="AR14" s="1">
-        <v>-253.176000</v>
+        <v>-253.17599999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>69769.499243</v>
+        <v>69769.499242999998</v>
       </c>
       <c r="AU14" s="1">
         <v>19.380416</v>
       </c>
       <c r="AV14" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW14" s="1">
-        <v>-312.538000</v>
+        <v>-312.53800000000001</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>69780.174600</v>
+        <v>69780.174599999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>19.383382</v>
+        <v>19.383382000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1452.420000</v>
+        <v>1452.42</v>
       </c>
       <c r="BB14" s="1">
-        <v>-364.006000</v>
+        <v>-364.00599999999997</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
         <v>69790.811168</v>
@@ -3730,2176 +4146,2176 @@
         <v>19.386336</v>
       </c>
       <c r="BF14" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG14" s="1">
-        <v>-609.015000</v>
+        <v>-609.01499999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>69802.117610</v>
+        <v>69802.117610000001</v>
       </c>
       <c r="BJ14" s="1">
-        <v>19.389477</v>
+        <v>19.389476999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1695.910000</v>
+        <v>1695.91</v>
       </c>
       <c r="BL14" s="1">
-        <v>-1046.930000</v>
+        <v>-1046.93</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
         <v>69813.596523</v>
       </c>
       <c r="BO14" s="1">
-        <v>19.392666</v>
+        <v>19.392665999999998</v>
       </c>
       <c r="BP14" s="1">
-        <v>1993.160000</v>
+        <v>1993.16</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-1802.010000</v>
+        <v>-1802.01</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>69824.951931</v>
+        <v>69824.951931000003</v>
       </c>
       <c r="BT14" s="1">
-        <v>19.395820</v>
+        <v>19.395820000000001</v>
       </c>
       <c r="BU14" s="1">
-        <v>2380.150000</v>
+        <v>2380.15</v>
       </c>
       <c r="BV14" s="1">
-        <v>-2668.510000</v>
+        <v>-2668.51</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>69835.777615</v>
+        <v>69835.777614999999</v>
       </c>
       <c r="BY14" s="1">
-        <v>19.398827</v>
+        <v>19.398827000000001</v>
       </c>
       <c r="BZ14" s="1">
-        <v>2865.900000</v>
+        <v>2865.9</v>
       </c>
       <c r="CA14" s="1">
-        <v>-3611.470000</v>
+        <v>-3611.47</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>69847.937044</v>
+        <v>69847.937044000006</v>
       </c>
       <c r="CD14" s="1">
-        <v>19.402205</v>
+        <v>19.402204999999999</v>
       </c>
       <c r="CE14" s="1">
-        <v>4281.520000</v>
+        <v>4281.5200000000004</v>
       </c>
       <c r="CF14" s="1">
-        <v>-5861.160000</v>
+        <v>-5861.16</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>69675.226130</v>
+        <v>69675.226129999995</v>
       </c>
       <c r="B15" s="1">
         <v>19.354229</v>
       </c>
       <c r="C15" s="1">
-        <v>1245.500000</v>
+        <v>1245.5</v>
       </c>
       <c r="D15" s="1">
-        <v>-299.684000</v>
+        <v>-299.68400000000003</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>69685.671348</v>
+        <v>69685.671348000003</v>
       </c>
       <c r="G15" s="1">
-        <v>19.357131</v>
+        <v>19.357130999999999</v>
       </c>
       <c r="H15" s="1">
-        <v>1270.250000</v>
+        <v>1270.25</v>
       </c>
       <c r="I15" s="1">
-        <v>-259.586000</v>
+        <v>-259.58600000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>69696.094773</v>
+        <v>69696.094773000004</v>
       </c>
       <c r="L15" s="1">
-        <v>19.360026</v>
+        <v>19.360026000000001</v>
       </c>
       <c r="M15" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N15" s="1">
-        <v>-201.174000</v>
+        <v>-201.17400000000001</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>69706.583673</v>
+        <v>69706.583673000001</v>
       </c>
       <c r="Q15" s="1">
-        <v>19.362940</v>
+        <v>19.362939999999998</v>
       </c>
       <c r="R15" s="1">
-        <v>1317.770000</v>
+        <v>1317.77</v>
       </c>
       <c r="S15" s="1">
-        <v>-184.240000</v>
+        <v>-184.24</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>69717.027931</v>
+        <v>69717.027931000004</v>
       </c>
       <c r="V15" s="1">
         <v>19.365841</v>
       </c>
       <c r="W15" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X15" s="1">
-        <v>-171.516000</v>
+        <v>-171.51599999999999</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>69727.556013</v>
+        <v>69727.556012999994</v>
       </c>
       <c r="AA15" s="1">
-        <v>19.368766</v>
+        <v>19.368766000000001</v>
       </c>
       <c r="AB15" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC15" s="1">
-        <v>-170.047000</v>
+        <v>-170.047</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>69738.067726</v>
+        <v>69738.067725999994</v>
       </c>
       <c r="AF15" s="1">
-        <v>19.371685</v>
+        <v>19.371684999999999</v>
       </c>
       <c r="AG15" s="1">
-        <v>1363.430000</v>
+        <v>1363.43</v>
       </c>
       <c r="AH15" s="1">
-        <v>-179.927000</v>
+        <v>-179.92699999999999</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>69748.262000</v>
+        <v>69748.262000000002</v>
       </c>
       <c r="AK15" s="1">
-        <v>19.374517</v>
+        <v>19.374517000000001</v>
       </c>
       <c r="AL15" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM15" s="1">
-        <v>-209.717000</v>
+        <v>-209.71700000000001</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>69759.074799</v>
+        <v>69759.074798999995</v>
       </c>
       <c r="AP15" s="1">
-        <v>19.377521</v>
+        <v>19.377521000000002</v>
       </c>
       <c r="AQ15" s="1">
-        <v>1407.390000</v>
+        <v>1407.39</v>
       </c>
       <c r="AR15" s="1">
-        <v>-253.142000</v>
+        <v>-253.142</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
         <v>69769.872722</v>
       </c>
       <c r="AU15" s="1">
-        <v>19.380520</v>
+        <v>19.380520000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>1432.660000</v>
+        <v>1432.66</v>
       </c>
       <c r="AW15" s="1">
-        <v>-312.535000</v>
+        <v>-312.53500000000003</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>69780.601158</v>
+        <v>69780.601158000005</v>
       </c>
       <c r="AZ15" s="1">
-        <v>19.383500</v>
+        <v>19.383500000000002</v>
       </c>
       <c r="BA15" s="1">
-        <v>1452.420000</v>
+        <v>1452.42</v>
       </c>
       <c r="BB15" s="1">
-        <v>-364.010000</v>
+        <v>-364.01</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>69791.236376</v>
+        <v>69791.236376000001</v>
       </c>
       <c r="BE15" s="1">
-        <v>19.386455</v>
+        <v>19.386455000000002</v>
       </c>
       <c r="BF15" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG15" s="1">
-        <v>-609.063000</v>
+        <v>-609.06299999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>69802.441497</v>
+        <v>69802.441497000007</v>
       </c>
       <c r="BJ15" s="1">
         <v>19.389567</v>
       </c>
       <c r="BK15" s="1">
-        <v>1696.040000</v>
+        <v>1696.04</v>
       </c>
       <c r="BL15" s="1">
-        <v>-1046.890000</v>
+        <v>-1046.8900000000001</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>69813.992593</v>
+        <v>69813.992593000003</v>
       </c>
       <c r="BO15" s="1">
-        <v>19.392776</v>
+        <v>19.392776000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1993.160000</v>
+        <v>1993.16</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-1801.850000</v>
+        <v>-1801.85</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>69825.383487</v>
+        <v>69825.383486999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>19.395940</v>
+        <v>19.39594</v>
       </c>
       <c r="BU15" s="1">
-        <v>2379.870000</v>
+        <v>2379.87</v>
       </c>
       <c r="BV15" s="1">
-        <v>-2668.400000</v>
+        <v>-2668.4</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>69836.195246</v>
+        <v>69836.195246000003</v>
       </c>
       <c r="BY15" s="1">
-        <v>19.398943</v>
+        <v>19.398942999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>2865.630000</v>
+        <v>2865.63</v>
       </c>
       <c r="CA15" s="1">
-        <v>-3611.440000</v>
+        <v>-3611.44</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>69848.820909</v>
+        <v>69848.820909000002</v>
       </c>
       <c r="CD15" s="1">
-        <v>19.402450</v>
+        <v>19.402450000000002</v>
       </c>
       <c r="CE15" s="1">
-        <v>4274.850000</v>
+        <v>4274.8500000000004</v>
       </c>
       <c r="CF15" s="1">
-        <v>-5875.840000</v>
+        <v>-5875.84</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>69675.569330</v>
+        <v>69675.569329999998</v>
       </c>
       <c r="B16" s="1">
-        <v>19.354325</v>
+        <v>19.354324999999999</v>
       </c>
       <c r="C16" s="1">
-        <v>1245.480000</v>
+        <v>1245.48</v>
       </c>
       <c r="D16" s="1">
-        <v>-299.980000</v>
+        <v>-299.98</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>69686.018548</v>
+        <v>69686.018547999993</v>
       </c>
       <c r="G16" s="1">
-        <v>19.357227</v>
+        <v>19.357227000000002</v>
       </c>
       <c r="H16" s="1">
-        <v>1269.500000</v>
+        <v>1269.5</v>
       </c>
       <c r="I16" s="1">
-        <v>-260.652000</v>
+        <v>-260.65199999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>69696.768344</v>
+        <v>69696.768343999996</v>
       </c>
       <c r="L16" s="1">
-        <v>19.360213</v>
+        <v>19.360213000000002</v>
       </c>
       <c r="M16" s="1">
-        <v>1305.400000</v>
+        <v>1305.4000000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-201.374000</v>
+        <v>-201.374</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
         <v>69707.054871</v>
       </c>
       <c r="Q16" s="1">
-        <v>19.363071</v>
+        <v>19.363071000000001</v>
       </c>
       <c r="R16" s="1">
-        <v>1317.740000</v>
+        <v>1317.74</v>
       </c>
       <c r="S16" s="1">
-        <v>-184.284000</v>
+        <v>-184.28399999999999</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>69717.408890</v>
+        <v>69717.408890000006</v>
       </c>
       <c r="V16" s="1">
-        <v>19.365947</v>
+        <v>19.365946999999998</v>
       </c>
       <c r="W16" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X16" s="1">
-        <v>-171.772000</v>
+        <v>-171.77199999999999</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>69727.906188</v>
+        <v>69727.906187999994</v>
       </c>
       <c r="AA16" s="1">
-        <v>19.368863</v>
+        <v>19.368863000000001</v>
       </c>
       <c r="AB16" s="1">
-        <v>1349.840000</v>
+        <v>1349.84</v>
       </c>
       <c r="AC16" s="1">
-        <v>-169.990000</v>
+        <v>-169.99</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>69738.410985</v>
+        <v>69738.410984999995</v>
       </c>
       <c r="AF16" s="1">
-        <v>19.371781</v>
+        <v>19.371780999999999</v>
       </c>
       <c r="AG16" s="1">
-        <v>1363.750000</v>
+        <v>1363.75</v>
       </c>
       <c r="AH16" s="1">
-        <v>-179.783000</v>
+        <v>-179.78299999999999</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>69748.610724</v>
+        <v>69748.610723999998</v>
       </c>
       <c r="AK16" s="1">
-        <v>19.374614</v>
+        <v>19.374614000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM16" s="1">
-        <v>-209.679000</v>
+        <v>-209.679</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>69759.456246</v>
+        <v>69759.456246000002</v>
       </c>
       <c r="AP16" s="1">
         <v>19.377627</v>
       </c>
       <c r="AQ16" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR16" s="1">
-        <v>-253.202000</v>
+        <v>-253.202</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>69770.295786</v>
+        <v>69770.295786000002</v>
       </c>
       <c r="AU16" s="1">
-        <v>19.380638</v>
+        <v>19.380638000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW16" s="1">
-        <v>-312.532000</v>
+        <v>-312.53199999999998</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>69780.893335</v>
+        <v>69780.893335000001</v>
       </c>
       <c r="AZ16" s="1">
         <v>19.383581</v>
       </c>
       <c r="BA16" s="1">
-        <v>1452.440000</v>
+        <v>1452.44</v>
       </c>
       <c r="BB16" s="1">
-        <v>-364.030000</v>
+        <v>-364.03</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>69791.532487</v>
+        <v>69791.532487000004</v>
       </c>
       <c r="BE16" s="1">
-        <v>19.386537</v>
+        <v>19.386537000000001</v>
       </c>
       <c r="BF16" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG16" s="1">
-        <v>-609.031000</v>
+        <v>-609.03099999999995</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>69802.825402</v>
+        <v>69802.825402000002</v>
       </c>
       <c r="BJ16" s="1">
-        <v>19.389674</v>
+        <v>19.389673999999999</v>
       </c>
       <c r="BK16" s="1">
-        <v>1695.950000</v>
+        <v>1695.95</v>
       </c>
       <c r="BL16" s="1">
-        <v>-1046.940000</v>
+        <v>-1046.94</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>69814.403050</v>
+        <v>69814.403049999994</v>
       </c>
       <c r="BO16" s="1">
-        <v>19.392890</v>
+        <v>19.392890000000001</v>
       </c>
       <c r="BP16" s="1">
-        <v>1993.160000</v>
+        <v>1993.16</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-1802.050000</v>
+        <v>-1802.05</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>69825.812986</v>
+        <v>69825.812986000004</v>
       </c>
       <c r="BT16" s="1">
-        <v>19.396059</v>
+        <v>19.396059000000001</v>
       </c>
       <c r="BU16" s="1">
-        <v>2380.200000</v>
+        <v>2380.1999999999998</v>
       </c>
       <c r="BV16" s="1">
-        <v>-2668.610000</v>
+        <v>-2668.61</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>69836.643629</v>
+        <v>69836.643628999998</v>
       </c>
       <c r="BY16" s="1">
         <v>19.399068</v>
       </c>
       <c r="BZ16" s="1">
-        <v>2865.740000</v>
+        <v>2865.74</v>
       </c>
       <c r="CA16" s="1">
-        <v>-3611.780000</v>
+        <v>-3611.78</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>69849.017820</v>
+        <v>69849.017819999994</v>
       </c>
       <c r="CD16" s="1">
-        <v>19.402505</v>
+        <v>19.402505000000001</v>
       </c>
       <c r="CE16" s="1">
-        <v>4275.200000</v>
+        <v>4275.2</v>
       </c>
       <c r="CF16" s="1">
-        <v>-5877.770000</v>
+        <v>-5877.77</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>69676.222561</v>
+        <v>69676.222561000002</v>
       </c>
       <c r="B17" s="1">
-        <v>19.354506</v>
+        <v>19.354506000000001</v>
       </c>
       <c r="C17" s="1">
-        <v>1245.380000</v>
+        <v>1245.3800000000001</v>
       </c>
       <c r="D17" s="1">
-        <v>-299.797000</v>
+        <v>-299.79700000000003</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>69686.670292</v>
+        <v>69686.670291999995</v>
       </c>
       <c r="G17" s="1">
         <v>19.357408</v>
       </c>
       <c r="H17" s="1">
-        <v>1269.800000</v>
+        <v>1269.8</v>
       </c>
       <c r="I17" s="1">
-        <v>-260.511000</v>
+        <v>-260.51100000000002</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>69697.131909</v>
+        <v>69697.131909000003</v>
       </c>
       <c r="L17" s="1">
-        <v>19.360314</v>
+        <v>19.360313999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>1305.680000</v>
+        <v>1305.68</v>
       </c>
       <c r="N17" s="1">
-        <v>-201.464000</v>
+        <v>-201.464</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>69707.289974</v>
+        <v>69707.289973999999</v>
       </c>
       <c r="Q17" s="1">
-        <v>19.363136</v>
+        <v>19.363136000000001</v>
       </c>
       <c r="R17" s="1">
-        <v>1317.750000</v>
+        <v>1317.75</v>
       </c>
       <c r="S17" s="1">
-        <v>-184.183000</v>
+        <v>-184.18299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>69717.754570</v>
+        <v>69717.754570000005</v>
       </c>
       <c r="V17" s="1">
-        <v>19.366043</v>
+        <v>19.366043000000001</v>
       </c>
       <c r="W17" s="1">
-        <v>1331.580000</v>
+        <v>1331.58</v>
       </c>
       <c r="X17" s="1">
-        <v>-171.585000</v>
+        <v>-171.58500000000001</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>69728.253884</v>
+        <v>69728.253884000005</v>
       </c>
       <c r="AA17" s="1">
         <v>19.368959</v>
       </c>
       <c r="AB17" s="1">
-        <v>1349.770000</v>
+        <v>1349.77</v>
       </c>
       <c r="AC17" s="1">
-        <v>-170.058000</v>
+        <v>-170.05799999999999</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>69738.757662</v>
+        <v>69738.757662000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>19.371877</v>
+        <v>19.371877000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>1363.380000</v>
+        <v>1363.38</v>
       </c>
       <c r="AH17" s="1">
-        <v>-179.870000</v>
+        <v>-179.87</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>69749.022896</v>
+        <v>69749.022895999995</v>
       </c>
       <c r="AK17" s="1">
-        <v>19.374729</v>
+        <v>19.374728999999999</v>
       </c>
       <c r="AL17" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM17" s="1">
-        <v>-209.737000</v>
+        <v>-209.73699999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
         <v>69759.968578</v>
       </c>
       <c r="AP17" s="1">
-        <v>19.377769</v>
+        <v>19.377769000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR17" s="1">
-        <v>-253.167000</v>
+        <v>-253.167</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>69770.602307</v>
+        <v>69770.602306999994</v>
       </c>
       <c r="AU17" s="1">
         <v>19.380723</v>
       </c>
       <c r="AV17" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW17" s="1">
-        <v>-312.536000</v>
+        <v>-312.536</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>69781.252437</v>
+        <v>69781.252437000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>19.383681</v>
+        <v>19.383680999999999</v>
       </c>
       <c r="BA17" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB17" s="1">
-        <v>-364.041000</v>
+        <v>-364.041</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>69791.893111</v>
+        <v>69791.893110999998</v>
       </c>
       <c r="BE17" s="1">
         <v>19.386637</v>
       </c>
       <c r="BF17" s="1">
-        <v>1539.400000</v>
+        <v>1539.4</v>
       </c>
       <c r="BG17" s="1">
-        <v>-609.026000</v>
+        <v>-609.02599999999995</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>69803.217241</v>
+        <v>69803.217241000006</v>
       </c>
       <c r="BJ17" s="1">
-        <v>19.389783</v>
+        <v>19.389783000000001</v>
       </c>
       <c r="BK17" s="1">
-        <v>1695.900000</v>
+        <v>1695.9</v>
       </c>
       <c r="BL17" s="1">
-        <v>-1046.830000</v>
+        <v>-1046.83</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>69815.220947</v>
+        <v>69815.220946999994</v>
       </c>
       <c r="BO17" s="1">
         <v>19.393117</v>
       </c>
       <c r="BP17" s="1">
-        <v>1993.040000</v>
+        <v>1993.04</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-1802.080000</v>
+        <v>-1802.08</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>69826.235578</v>
+        <v>69826.235578000007</v>
       </c>
       <c r="BT17" s="1">
-        <v>19.396177</v>
+        <v>19.396177000000002</v>
       </c>
       <c r="BU17" s="1">
-        <v>2379.710000</v>
+        <v>2379.71</v>
       </c>
       <c r="BV17" s="1">
-        <v>-2668.520000</v>
+        <v>-2668.52</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>69837.065723</v>
+        <v>69837.065723000007</v>
       </c>
       <c r="BY17" s="1">
-        <v>19.399185</v>
+        <v>19.399184999999999</v>
       </c>
       <c r="BZ17" s="1">
-        <v>2866.130000</v>
+        <v>2866.13</v>
       </c>
       <c r="CA17" s="1">
-        <v>-3611.540000</v>
+        <v>-3611.54</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>69849.537130</v>
+        <v>69849.537129999997</v>
       </c>
       <c r="CD17" s="1">
         <v>19.402649</v>
       </c>
       <c r="CE17" s="1">
-        <v>4283.340000</v>
+        <v>4283.34</v>
       </c>
       <c r="CF17" s="1">
-        <v>-5862.370000</v>
+        <v>-5862.37</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>69676.593080</v>
+        <v>69676.593080000006</v>
       </c>
       <c r="B18" s="1">
         <v>19.354609</v>
       </c>
       <c r="C18" s="1">
-        <v>1245.370000</v>
+        <v>1245.3699999999999</v>
       </c>
       <c r="D18" s="1">
-        <v>-300.229000</v>
+        <v>-300.22899999999998</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>69687.049729</v>
+        <v>69687.049729000006</v>
       </c>
       <c r="G18" s="1">
-        <v>19.357514</v>
+        <v>19.357513999999998</v>
       </c>
       <c r="H18" s="1">
-        <v>1270.580000</v>
+        <v>1270.58</v>
       </c>
       <c r="I18" s="1">
-        <v>-260.539000</v>
+        <v>-260.53899999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>69697.475636</v>
+        <v>69697.475636000003</v>
       </c>
       <c r="L18" s="1">
-        <v>19.360410</v>
+        <v>19.360410000000002</v>
       </c>
       <c r="M18" s="1">
-        <v>1305.860000</v>
+        <v>1305.8599999999999</v>
       </c>
       <c r="N18" s="1">
-        <v>-201.409000</v>
+        <v>-201.40899999999999</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>69707.637702</v>
+        <v>69707.637702000007</v>
       </c>
       <c r="Q18" s="1">
-        <v>19.363233</v>
+        <v>19.363233000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>1317.830000</v>
+        <v>1317.83</v>
       </c>
       <c r="S18" s="1">
-        <v>-184.202000</v>
+        <v>-184.202</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>69718.099320</v>
+        <v>69718.099319999994</v>
       </c>
       <c r="V18" s="1">
         <v>19.366139</v>
       </c>
       <c r="W18" s="1">
-        <v>1331.590000</v>
+        <v>1331.59</v>
       </c>
       <c r="X18" s="1">
-        <v>-171.620000</v>
+        <v>-171.62</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>69728.668538</v>
+        <v>69728.668537999998</v>
       </c>
       <c r="AA18" s="1">
-        <v>19.369075</v>
+        <v>19.369074999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>1349.710000</v>
+        <v>1349.71</v>
       </c>
       <c r="AC18" s="1">
-        <v>-169.879000</v>
+        <v>-169.87899999999999</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>69739.185737</v>
+        <v>69739.185737000007</v>
       </c>
       <c r="AF18" s="1">
-        <v>19.371996</v>
+        <v>19.371995999999999</v>
       </c>
       <c r="AG18" s="1">
-        <v>1363.560000</v>
+        <v>1363.56</v>
       </c>
       <c r="AH18" s="1">
-        <v>-179.641000</v>
+        <v>-179.64099999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>69749.317488</v>
+        <v>69749.317488000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>19.374810</v>
+        <v>19.37481</v>
       </c>
       <c r="AL18" s="1">
-        <v>1384.930000</v>
+        <v>1384.93</v>
       </c>
       <c r="AM18" s="1">
-        <v>-209.690000</v>
+        <v>-209.69</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>69760.175907</v>
+        <v>69760.175906999997</v>
       </c>
       <c r="AP18" s="1">
         <v>19.377827</v>
       </c>
       <c r="AQ18" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR18" s="1">
-        <v>-253.195000</v>
+        <v>-253.19499999999999</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>69770.966868</v>
+        <v>69770.966868000003</v>
       </c>
       <c r="AU18" s="1">
         <v>19.380824</v>
       </c>
       <c r="AV18" s="1">
-        <v>1432.670000</v>
+        <v>1432.67</v>
       </c>
       <c r="AW18" s="1">
-        <v>-312.516000</v>
+        <v>-312.51600000000002</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>69781.612502</v>
+        <v>69781.612502000004</v>
       </c>
       <c r="AZ18" s="1">
-        <v>19.383781</v>
+        <v>19.383780999999999</v>
       </c>
       <c r="BA18" s="1">
-        <v>1452.470000</v>
+        <v>1452.47</v>
       </c>
       <c r="BB18" s="1">
-        <v>-364.001000</v>
+        <v>-364.00099999999998</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>69792.254168</v>
+        <v>69792.254167999999</v>
       </c>
       <c r="BE18" s="1">
         <v>19.386737</v>
       </c>
       <c r="BF18" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG18" s="1">
-        <v>-608.999000</v>
+        <v>-608.99900000000002</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>69803.965208</v>
+        <v>69803.965207999994</v>
       </c>
       <c r="BJ18" s="1">
-        <v>19.389990</v>
+        <v>19.389990000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1695.900000</v>
+        <v>1695.9</v>
       </c>
       <c r="BL18" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>69815.638553</v>
+        <v>69815.638552999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>19.393233</v>
+        <v>19.393232999999999</v>
       </c>
       <c r="BP18" s="1">
-        <v>1993.070000</v>
+        <v>1993.07</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-1802.030000</v>
+        <v>-1802.03</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>69826.653245</v>
+        <v>69826.653244999994</v>
       </c>
       <c r="BT18" s="1">
         <v>19.396293</v>
       </c>
       <c r="BU18" s="1">
-        <v>2379.800000</v>
+        <v>2379.8000000000002</v>
       </c>
       <c r="BV18" s="1">
-        <v>-2668.490000</v>
+        <v>-2668.49</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>69837.488316</v>
+        <v>69837.488316000003</v>
       </c>
       <c r="BY18" s="1">
-        <v>19.399302</v>
+        <v>19.399301999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>2865.950000</v>
+        <v>2865.95</v>
       </c>
       <c r="CA18" s="1">
-        <v>-3611.490000</v>
+        <v>-3611.49</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>69850.373881</v>
+        <v>69850.373881000007</v>
       </c>
       <c r="CD18" s="1">
-        <v>19.402882</v>
+        <v>19.402882000000002</v>
       </c>
       <c r="CE18" s="1">
-        <v>4268.970000</v>
+        <v>4268.97</v>
       </c>
       <c r="CF18" s="1">
-        <v>-5856.650000</v>
+        <v>-5856.65</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>69676.939775</v>
+        <v>69676.939775000006</v>
       </c>
       <c r="B19" s="1">
-        <v>19.354705</v>
+        <v>19.354704999999999</v>
       </c>
       <c r="C19" s="1">
-        <v>1245.350000</v>
+        <v>1245.3499999999999</v>
       </c>
       <c r="D19" s="1">
-        <v>-299.648000</v>
+        <v>-299.64800000000002</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
         <v>69687.397459</v>
       </c>
       <c r="G19" s="1">
-        <v>19.357610</v>
+        <v>19.357610000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>1269.670000</v>
+        <v>1269.67</v>
       </c>
       <c r="I19" s="1">
-        <v>-260.822000</v>
+        <v>-260.822</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>69697.820883</v>
+        <v>69697.820882999993</v>
       </c>
       <c r="L19" s="1">
-        <v>19.360506</v>
+        <v>19.360506000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>1305.390000</v>
+        <v>1305.3900000000001</v>
       </c>
       <c r="N19" s="1">
-        <v>-201.394000</v>
+        <v>-201.39400000000001</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>69708.058774</v>
+        <v>69708.058774000005</v>
       </c>
       <c r="Q19" s="1">
-        <v>19.363350</v>
+        <v>19.363350000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>1317.810000</v>
+        <v>1317.81</v>
       </c>
       <c r="S19" s="1">
-        <v>-184.235000</v>
+        <v>-184.23500000000001</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>69718.530313</v>
+        <v>69718.530312999996</v>
       </c>
       <c r="V19" s="1">
-        <v>19.366258</v>
+        <v>19.366257999999998</v>
       </c>
       <c r="W19" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X19" s="1">
-        <v>-171.724000</v>
+        <v>-171.72399999999999</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>69728.950797</v>
+        <v>69728.950796999998</v>
       </c>
       <c r="AA19" s="1">
-        <v>19.369153</v>
+        <v>19.369153000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>1349.880000</v>
+        <v>1349.88</v>
       </c>
       <c r="AC19" s="1">
-        <v>-169.877000</v>
+        <v>-169.87700000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>69739.462476</v>
+        <v>69739.462476000001</v>
       </c>
       <c r="AF19" s="1">
         <v>19.372073</v>
       </c>
       <c r="AG19" s="1">
-        <v>1363.360000</v>
+        <v>1363.36</v>
       </c>
       <c r="AH19" s="1">
-        <v>-179.542000</v>
+        <v>-179.542</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>69749.668191</v>
+        <v>69749.668191000004</v>
       </c>
       <c r="AK19" s="1">
-        <v>19.374908</v>
+        <v>19.374908000000001</v>
       </c>
       <c r="AL19" s="1">
-        <v>1384.920000</v>
+        <v>1384.92</v>
       </c>
       <c r="AM19" s="1">
-        <v>-209.708000</v>
+        <v>-209.708</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>69760.536497</v>
+        <v>69760.536496999994</v>
       </c>
       <c r="AP19" s="1">
         <v>19.377927</v>
       </c>
       <c r="AQ19" s="1">
-        <v>1407.340000</v>
+        <v>1407.34</v>
       </c>
       <c r="AR19" s="1">
-        <v>-253.190000</v>
+        <v>-253.19</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>69771.331428</v>
+        <v>69771.331428000005</v>
       </c>
       <c r="AU19" s="1">
-        <v>19.380925</v>
+        <v>19.380925000000001</v>
       </c>
       <c r="AV19" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW19" s="1">
-        <v>-312.526000</v>
+        <v>-312.52600000000001</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>69782.327235</v>
+        <v>69782.327235000004</v>
       </c>
       <c r="AZ19" s="1">
-        <v>19.383980</v>
+        <v>19.383980000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1452.460000</v>
+        <v>1452.46</v>
       </c>
       <c r="BB19" s="1">
-        <v>-364.011000</v>
+        <v>-364.01100000000002</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>69792.975351</v>
+        <v>69792.975351000001</v>
       </c>
       <c r="BE19" s="1">
-        <v>19.386938</v>
+        <v>19.386938000000001</v>
       </c>
       <c r="BF19" s="1">
-        <v>1539.380000</v>
+        <v>1539.38</v>
       </c>
       <c r="BG19" s="1">
-        <v>-609.008000</v>
+        <v>-609.00800000000004</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>69804.367463</v>
+        <v>69804.367463000002</v>
       </c>
       <c r="BJ19" s="1">
-        <v>19.390102</v>
+        <v>19.390101999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1695.980000</v>
+        <v>1695.98</v>
       </c>
       <c r="BL19" s="1">
-        <v>-1046.880000</v>
+        <v>-1046.8800000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>69816.033383</v>
+        <v>69816.033383000002</v>
       </c>
       <c r="BO19" s="1">
-        <v>19.393343</v>
+        <v>19.393343000000002</v>
       </c>
       <c r="BP19" s="1">
-        <v>1993.150000</v>
+        <v>1993.15</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-1801.980000</v>
+        <v>-1801.98</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>69827.081783</v>
+        <v>69827.081783000001</v>
       </c>
       <c r="BT19" s="1">
-        <v>19.396412</v>
+        <v>19.396412000000002</v>
       </c>
       <c r="BU19" s="1">
-        <v>2379.830000</v>
+        <v>2379.83</v>
       </c>
       <c r="BV19" s="1">
-        <v>-2668.260000</v>
+        <v>-2668.26</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>69838.253146</v>
+        <v>69838.253146000003</v>
       </c>
       <c r="BY19" s="1">
-        <v>19.399515</v>
+        <v>19.399515000000001</v>
       </c>
       <c r="BZ19" s="1">
-        <v>2865.350000</v>
+        <v>2865.35</v>
       </c>
       <c r="CA19" s="1">
-        <v>-3611.670000</v>
+        <v>-3611.67</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>69850.573275</v>
+        <v>69850.573275000002</v>
       </c>
       <c r="CD19" s="1">
-        <v>19.402937</v>
+        <v>19.402937000000001</v>
       </c>
       <c r="CE19" s="1">
-        <v>4265.120000</v>
+        <v>4265.12</v>
       </c>
       <c r="CF19" s="1">
-        <v>-5870.370000</v>
+        <v>-5870.37</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>69677.281518</v>
+        <v>69677.281518000003</v>
       </c>
       <c r="B20" s="1">
-        <v>19.354800</v>
+        <v>19.354800000000001</v>
       </c>
       <c r="C20" s="1">
-        <v>1245.410000</v>
+        <v>1245.4100000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-300.040000</v>
+        <v>-300.04000000000002</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>69687.741692</v>
+        <v>69687.741691999996</v>
       </c>
       <c r="G20" s="1">
         <v>19.357706</v>
       </c>
       <c r="H20" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I20" s="1">
-        <v>-260.380000</v>
+        <v>-260.38</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>69698.236506</v>
+        <v>69698.236506000001</v>
       </c>
       <c r="L20" s="1">
-        <v>19.360621</v>
+        <v>19.360620999999998</v>
       </c>
       <c r="M20" s="1">
-        <v>1305.510000</v>
+        <v>1305.51</v>
       </c>
       <c r="N20" s="1">
-        <v>-201.507000</v>
+        <v>-201.50700000000001</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>69708.333559</v>
+        <v>69708.333559000006</v>
       </c>
       <c r="Q20" s="1">
         <v>19.363426</v>
       </c>
       <c r="R20" s="1">
-        <v>1317.800000</v>
+        <v>1317.8</v>
       </c>
       <c r="S20" s="1">
-        <v>-184.260000</v>
+        <v>-184.26</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>69718.809065</v>
+        <v>69718.809064999994</v>
       </c>
       <c r="V20" s="1">
         <v>19.366336</v>
       </c>
       <c r="W20" s="1">
-        <v>1331.530000</v>
+        <v>1331.53</v>
       </c>
       <c r="X20" s="1">
-        <v>-171.688000</v>
+        <v>-171.68799999999999</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>69729.297467</v>
+        <v>69729.297466999997</v>
       </c>
       <c r="AA20" s="1">
         <v>19.369249</v>
       </c>
       <c r="AB20" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC20" s="1">
-        <v>-170.119000</v>
+        <v>-170.119</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>69739.805709</v>
+        <v>69739.805708999993</v>
       </c>
       <c r="AF20" s="1">
-        <v>19.372168</v>
+        <v>19.372167999999999</v>
       </c>
       <c r="AG20" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH20" s="1">
-        <v>-179.750000</v>
+        <v>-179.75</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>69750.007918</v>
+        <v>69750.007918000003</v>
       </c>
       <c r="AK20" s="1">
-        <v>19.375002</v>
+        <v>19.375001999999999</v>
       </c>
       <c r="AL20" s="1">
-        <v>1384.910000</v>
+        <v>1384.91</v>
       </c>
       <c r="AM20" s="1">
-        <v>-209.687000</v>
+        <v>-209.68700000000001</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>69761.256729</v>
+        <v>69761.256729000001</v>
       </c>
       <c r="AP20" s="1">
-        <v>19.378127</v>
+        <v>19.378126999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>1407.390000</v>
+        <v>1407.39</v>
       </c>
       <c r="AR20" s="1">
-        <v>-253.187000</v>
+        <v>-253.18700000000001</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>69772.061073</v>
+        <v>69772.061073000004</v>
       </c>
       <c r="AU20" s="1">
         <v>19.381128</v>
       </c>
       <c r="AV20" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW20" s="1">
-        <v>-312.495000</v>
+        <v>-312.495</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>69782.686868</v>
+        <v>69782.686868000004</v>
       </c>
       <c r="AZ20" s="1">
-        <v>19.384080</v>
+        <v>19.384080000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1452.460000</v>
+        <v>1452.46</v>
       </c>
       <c r="BB20" s="1">
-        <v>-364.008000</v>
+        <v>-364.00799999999998</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>69793.335446</v>
+        <v>69793.335445999997</v>
       </c>
       <c r="BE20" s="1">
         <v>19.387038</v>
       </c>
       <c r="BF20" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG20" s="1">
-        <v>-609.024000</v>
+        <v>-609.024</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>69804.742444</v>
+        <v>69804.742444000003</v>
       </c>
       <c r="BJ20" s="1">
-        <v>19.390206</v>
+        <v>19.390205999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1695.900000</v>
+        <v>1695.9</v>
       </c>
       <c r="BL20" s="1">
-        <v>-1046.820000</v>
+        <v>-1046.82</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>69816.766455</v>
+        <v>69816.766455000004</v>
       </c>
       <c r="BO20" s="1">
-        <v>19.393546</v>
+        <v>19.393546000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1993.130000</v>
+        <v>1993.13</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-1801.950000</v>
+        <v>-1801.95</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>69827.805912</v>
+        <v>69827.805911999996</v>
       </c>
       <c r="BT20" s="1">
-        <v>19.396613</v>
+        <v>19.396612999999999</v>
       </c>
       <c r="BU20" s="1">
-        <v>2380.100000</v>
+        <v>2380.1</v>
       </c>
       <c r="BV20" s="1">
-        <v>-2668.360000</v>
+        <v>-2668.36</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>69838.366731</v>
+        <v>69838.366731000002</v>
       </c>
       <c r="BY20" s="1">
-        <v>19.399546</v>
+        <v>19.399546000000001</v>
       </c>
       <c r="BZ20" s="1">
-        <v>2865.570000</v>
+        <v>2865.57</v>
       </c>
       <c r="CA20" s="1">
-        <v>-3610.800000</v>
+        <v>-3610.8</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>69851.089113</v>
+        <v>69851.089112999995</v>
       </c>
       <c r="CD20" s="1">
-        <v>19.403080</v>
+        <v>19.403079999999999</v>
       </c>
       <c r="CE20" s="1">
-        <v>4264.290000</v>
+        <v>4264.29</v>
       </c>
       <c r="CF20" s="1">
-        <v>-5869.340000</v>
+        <v>-5869.34</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>69677.700639</v>
+        <v>69677.700639000002</v>
       </c>
       <c r="B21" s="1">
         <v>19.354917</v>
       </c>
       <c r="C21" s="1">
-        <v>1245.480000</v>
+        <v>1245.48</v>
       </c>
       <c r="D21" s="1">
-        <v>-299.942000</v>
+        <v>-299.94200000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>69688.163286</v>
+        <v>69688.163285999995</v>
       </c>
       <c r="G21" s="1">
         <v>19.357823</v>
       </c>
       <c r="H21" s="1">
-        <v>1269.680000</v>
+        <v>1269.68</v>
       </c>
       <c r="I21" s="1">
-        <v>-260.333000</v>
+        <v>-260.33300000000003</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>69698.535588</v>
+        <v>69698.535587999999</v>
       </c>
       <c r="L21" s="1">
-        <v>19.360704</v>
+        <v>19.360703999999998</v>
       </c>
       <c r="M21" s="1">
-        <v>1305.540000</v>
+        <v>1305.54</v>
       </c>
       <c r="N21" s="1">
-        <v>-201.321000</v>
+        <v>-201.321</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>69708.680293</v>
+        <v>69708.680292999998</v>
       </c>
       <c r="Q21" s="1">
         <v>19.363522</v>
       </c>
       <c r="R21" s="1">
-        <v>1317.790000</v>
+        <v>1317.79</v>
       </c>
       <c r="S21" s="1">
-        <v>-184.341000</v>
+        <v>-184.34100000000001</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>69719.148327</v>
+        <v>69719.148327000003</v>
       </c>
       <c r="V21" s="1">
-        <v>19.366430</v>
+        <v>19.366430000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>1331.490000</v>
+        <v>1331.49</v>
       </c>
       <c r="X21" s="1">
-        <v>-171.666000</v>
+        <v>-171.666</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>69729.647672</v>
+        <v>69729.647672000006</v>
       </c>
       <c r="AA21" s="1">
-        <v>19.369347</v>
+        <v>19.369347000000001</v>
       </c>
       <c r="AB21" s="1">
-        <v>1349.920000</v>
+        <v>1349.92</v>
       </c>
       <c r="AC21" s="1">
-        <v>-169.960000</v>
+        <v>-169.96</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>69740.152907</v>
+        <v>69740.152906999996</v>
       </c>
       <c r="AF21" s="1">
-        <v>19.372265</v>
+        <v>19.372264999999999</v>
       </c>
       <c r="AG21" s="1">
-        <v>1363.520000</v>
+        <v>1363.52</v>
       </c>
       <c r="AH21" s="1">
-        <v>-179.928000</v>
+        <v>-179.928</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>69750.710749</v>
+        <v>69750.710749000005</v>
       </c>
       <c r="AK21" s="1">
         <v>19.375197</v>
       </c>
       <c r="AL21" s="1">
-        <v>1384.930000</v>
+        <v>1384.93</v>
       </c>
       <c r="AM21" s="1">
-        <v>-209.708000</v>
+        <v>-209.708</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>69761.647040</v>
+        <v>69761.647039999996</v>
       </c>
       <c r="AP21" s="1">
         <v>19.378235</v>
       </c>
       <c r="AQ21" s="1">
-        <v>1407.380000</v>
+        <v>1407.38</v>
       </c>
       <c r="AR21" s="1">
-        <v>-253.183000</v>
+        <v>-253.18299999999999</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>69772.426592</v>
+        <v>69772.426592000003</v>
       </c>
       <c r="AU21" s="1">
-        <v>19.381230</v>
+        <v>19.381229999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>1432.650000</v>
+        <v>1432.65</v>
       </c>
       <c r="AW21" s="1">
-        <v>-312.527000</v>
+        <v>-312.52699999999999</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>69783.046963</v>
+        <v>69783.046963000001</v>
       </c>
       <c r="AZ21" s="1">
-        <v>19.384180</v>
+        <v>19.384180000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB21" s="1">
-        <v>-364.009000</v>
+        <v>-364.00900000000001</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>69793.699054</v>
+        <v>69793.699053999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>19.387139</v>
+        <v>19.387139000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1539.360000</v>
+        <v>1539.36</v>
       </c>
       <c r="BG21" s="1">
-        <v>-609.007000</v>
+        <v>-609.00699999999995</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>69805.436870</v>
+        <v>69805.436870000005</v>
       </c>
       <c r="BJ21" s="1">
-        <v>19.390399</v>
+        <v>19.390398999999999</v>
       </c>
       <c r="BK21" s="1">
-        <v>1695.910000</v>
+        <v>1695.91</v>
       </c>
       <c r="BL21" s="1">
-        <v>-1046.770000</v>
+        <v>-1046.77</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>69817.273367</v>
+        <v>69817.273367000002</v>
       </c>
       <c r="BO21" s="1">
         <v>19.393687</v>
       </c>
       <c r="BP21" s="1">
-        <v>1993.020000</v>
+        <v>1993.02</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-1801.980000</v>
+        <v>-1801.98</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>69827.926439</v>
+        <v>69827.926439000003</v>
       </c>
       <c r="BT21" s="1">
         <v>19.396646</v>
       </c>
       <c r="BU21" s="1">
-        <v>2379.830000</v>
+        <v>2379.83</v>
       </c>
       <c r="BV21" s="1">
-        <v>-2668.200000</v>
+        <v>-2668.2</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>69838.804202</v>
+        <v>69838.804201999999</v>
       </c>
       <c r="BY21" s="1">
-        <v>19.399668</v>
+        <v>19.399667999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>2865.100000</v>
+        <v>2865.1</v>
       </c>
       <c r="CA21" s="1">
-        <v>-3611.480000</v>
+        <v>-3611.48</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>69851.642648</v>
+        <v>69851.642647999994</v>
       </c>
       <c r="CD21" s="1">
-        <v>19.403234</v>
+        <v>19.403234000000001</v>
       </c>
       <c r="CE21" s="1">
-        <v>4265.320000</v>
+        <v>4265.32</v>
       </c>
       <c r="CF21" s="1">
-        <v>-5857.480000</v>
+        <v>-5857.48</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>69677.976909</v>
+        <v>69677.976909000005</v>
       </c>
       <c r="B22" s="1">
-        <v>19.354994</v>
+        <v>19.354994000000001</v>
       </c>
       <c r="C22" s="1">
-        <v>1245.560000</v>
+        <v>1245.56</v>
       </c>
       <c r="D22" s="1">
-        <v>-299.727000</v>
+        <v>-299.72699999999998</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>69688.436545</v>
+        <v>69688.436545000004</v>
       </c>
       <c r="G22" s="1">
         <v>19.357899</v>
       </c>
       <c r="H22" s="1">
-        <v>1270.030000</v>
+        <v>1270.03</v>
       </c>
       <c r="I22" s="1">
-        <v>-260.971000</v>
+        <v>-260.971</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>69698.879841</v>
+        <v>69698.879841000002</v>
       </c>
       <c r="L22" s="1">
-        <v>19.360800</v>
+        <v>19.360800000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>1305.620000</v>
+        <v>1305.6199999999999</v>
       </c>
       <c r="N22" s="1">
-        <v>-201.436000</v>
+        <v>-201.43600000000001</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>69709.028948</v>
+        <v>69709.028948000006</v>
       </c>
       <c r="Q22" s="1">
         <v>19.363619</v>
       </c>
       <c r="R22" s="1">
-        <v>1317.700000</v>
+        <v>1317.7</v>
       </c>
       <c r="S22" s="1">
-        <v>-184.206000</v>
+        <v>-184.20599999999999</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>69719.496519</v>
+        <v>69719.496518999993</v>
       </c>
       <c r="V22" s="1">
-        <v>19.366527</v>
+        <v>19.366527000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>1331.420000</v>
+        <v>1331.42</v>
       </c>
       <c r="X22" s="1">
-        <v>-171.281000</v>
+        <v>-171.28100000000001</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
         <v>69730.345512</v>
       </c>
       <c r="AA22" s="1">
-        <v>19.369540</v>
+        <v>19.369540000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>1349.900000</v>
+        <v>1349.9</v>
       </c>
       <c r="AC22" s="1">
-        <v>-170.084000</v>
+        <v>-170.084</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>69740.840363</v>
+        <v>69740.840362999996</v>
       </c>
       <c r="AF22" s="1">
         <v>19.372456</v>
       </c>
       <c r="AG22" s="1">
-        <v>1363.390000</v>
+        <v>1363.39</v>
       </c>
       <c r="AH22" s="1">
-        <v>-179.885000</v>
+        <v>-179.88499999999999</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>69751.061949</v>
+        <v>69751.061948999995</v>
       </c>
       <c r="AK22" s="1">
-        <v>19.375295</v>
+        <v>19.375295000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>1384.870000</v>
+        <v>1384.87</v>
       </c>
       <c r="AM22" s="1">
-        <v>-209.698000</v>
+        <v>-209.69800000000001</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>69762.023998</v>
+        <v>69762.023998000004</v>
       </c>
       <c r="AP22" s="1">
-        <v>19.378340</v>
+        <v>19.378340000000001</v>
       </c>
       <c r="AQ22" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR22" s="1">
-        <v>-253.167000</v>
+        <v>-253.167</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>69772.789169</v>
+        <v>69772.789168999996</v>
       </c>
       <c r="AU22" s="1">
-        <v>19.381330</v>
+        <v>19.381329999999998</v>
       </c>
       <c r="AV22" s="1">
-        <v>1432.620000</v>
+        <v>1432.62</v>
       </c>
       <c r="AW22" s="1">
-        <v>-312.502000</v>
+        <v>-312.50200000000001</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>69783.710083</v>
+        <v>69783.710082999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>19.384364</v>
+        <v>19.384364000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB22" s="1">
-        <v>-364.030000</v>
+        <v>-364.03</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>69794.377453</v>
+        <v>69794.377452999994</v>
       </c>
       <c r="BE22" s="1">
-        <v>19.387327</v>
+        <v>19.387326999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1539.370000</v>
+        <v>1539.37</v>
       </c>
       <c r="BG22" s="1">
-        <v>-608.954000</v>
+        <v>-608.95399999999995</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>69805.899108</v>
+        <v>69805.899107999998</v>
       </c>
       <c r="BJ22" s="1">
         <v>19.390528</v>
       </c>
       <c r="BK22" s="1">
-        <v>1695.920000</v>
+        <v>1695.92</v>
       </c>
       <c r="BL22" s="1">
-        <v>-1046.830000</v>
+        <v>-1046.83</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>69817.693478</v>
+        <v>69817.693478000001</v>
       </c>
       <c r="BO22" s="1">
-        <v>19.393804</v>
+        <v>19.393803999999999</v>
       </c>
       <c r="BP22" s="1">
-        <v>1993.120000</v>
+        <v>1993.12</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-1801.830000</v>
+        <v>-1801.83</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>69828.365399</v>
+        <v>69828.365399000002</v>
       </c>
       <c r="BT22" s="1">
-        <v>19.396768</v>
+        <v>19.396768000000002</v>
       </c>
       <c r="BU22" s="1">
-        <v>2380.000000</v>
+        <v>2380</v>
       </c>
       <c r="BV22" s="1">
-        <v>-2668.210000</v>
+        <v>-2668.21</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>69839.264488</v>
+        <v>69839.264488000001</v>
       </c>
       <c r="BY22" s="1">
-        <v>19.399796</v>
+        <v>19.399795999999998</v>
       </c>
       <c r="BZ22" s="1">
-        <v>2865.480000</v>
+        <v>2865.48</v>
       </c>
       <c r="CA22" s="1">
-        <v>-3611.660000</v>
+        <v>-3611.66</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>69852.172904</v>
+        <v>69852.172904000006</v>
       </c>
       <c r="CD22" s="1">
         <v>19.403381</v>
       </c>
       <c r="CE22" s="1">
-        <v>4266.380000</v>
+        <v>4266.38</v>
       </c>
       <c r="CF22" s="1">
-        <v>-5871.900000</v>
+        <v>-5871.9</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>69678.319645</v>
+        <v>69678.319644999996</v>
       </c>
       <c r="B23" s="1">
         <v>19.355089</v>
       </c>
       <c r="C23" s="1">
-        <v>1245.360000</v>
+        <v>1245.3599999999999</v>
       </c>
       <c r="D23" s="1">
-        <v>-300.148000</v>
+        <v>-300.14800000000002</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>69688.782751</v>
+        <v>69688.782751000006</v>
       </c>
       <c r="G23" s="1">
-        <v>19.357995</v>
+        <v>19.357994999999999</v>
       </c>
       <c r="H23" s="1">
-        <v>1269.910000</v>
+        <v>1269.9100000000001</v>
       </c>
       <c r="I23" s="1">
-        <v>-260.456000</v>
+        <v>-260.45600000000002</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
         <v>69699.226037</v>
@@ -5908,996 +6324,997 @@
         <v>19.360896</v>
       </c>
       <c r="M23" s="1">
-        <v>1305.420000</v>
+        <v>1305.42</v>
       </c>
       <c r="N23" s="1">
-        <v>-201.192000</v>
+        <v>-201.19200000000001</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>69709.725827</v>
+        <v>69709.725827000002</v>
       </c>
       <c r="Q23" s="1">
         <v>19.363813</v>
       </c>
       <c r="R23" s="1">
-        <v>1317.820000</v>
+        <v>1317.82</v>
       </c>
       <c r="S23" s="1">
-        <v>-184.170000</v>
+        <v>-184.17</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>69720.179014</v>
+        <v>69720.179013999994</v>
       </c>
       <c r="V23" s="1">
         <v>19.366716</v>
       </c>
       <c r="W23" s="1">
-        <v>1331.730000</v>
+        <v>1331.73</v>
       </c>
       <c r="X23" s="1">
-        <v>-171.571000</v>
+        <v>-171.571</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>69730.691721</v>
+        <v>69730.691720999996</v>
       </c>
       <c r="AA23" s="1">
-        <v>19.369637</v>
+        <v>19.369637000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>1349.990000</v>
+        <v>1349.99</v>
       </c>
       <c r="AC23" s="1">
-        <v>-169.867000</v>
+        <v>-169.86699999999999</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>69741.178670</v>
+        <v>69741.178669999994</v>
       </c>
       <c r="AF23" s="1">
-        <v>19.372550</v>
+        <v>19.37255</v>
       </c>
       <c r="AG23" s="1">
-        <v>1363.490000</v>
+        <v>1363.49</v>
       </c>
       <c r="AH23" s="1">
-        <v>-179.790000</v>
+        <v>-179.79</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>69751.409148</v>
+        <v>69751.409148000006</v>
       </c>
       <c r="AK23" s="1">
         <v>19.375391</v>
       </c>
       <c r="AL23" s="1">
-        <v>1384.910000</v>
+        <v>1384.91</v>
       </c>
       <c r="AM23" s="1">
-        <v>-209.669000</v>
+        <v>-209.66900000000001</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>69762.695117</v>
+        <v>69762.695116999996</v>
       </c>
       <c r="AP23" s="1">
-        <v>19.378526</v>
+        <v>19.378526000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>1407.350000</v>
+        <v>1407.35</v>
       </c>
       <c r="AR23" s="1">
-        <v>-253.207000</v>
+        <v>-253.20699999999999</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>69773.461745</v>
+        <v>69773.461744999993</v>
       </c>
       <c r="AU23" s="1">
-        <v>19.381517</v>
+        <v>19.381516999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>1432.610000</v>
+        <v>1432.61</v>
       </c>
       <c r="AW23" s="1">
-        <v>-312.524000</v>
+        <v>-312.524</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>69784.154994</v>
+        <v>69784.154993999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>19.384487</v>
       </c>
       <c r="BA23" s="1">
-        <v>1452.440000</v>
+        <v>1452.44</v>
       </c>
       <c r="BB23" s="1">
-        <v>-363.975000</v>
+        <v>-363.97500000000002</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>69794.806083</v>
+        <v>69794.806083000003</v>
       </c>
       <c r="BE23" s="1">
-        <v>19.387446</v>
+        <v>19.387446000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG23" s="1">
-        <v>-609.000000</v>
+        <v>-609</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>69806.288469</v>
+        <v>69806.288469000006</v>
       </c>
       <c r="BJ23" s="1">
-        <v>19.390636</v>
+        <v>19.390636000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1695.980000</v>
+        <v>1695.98</v>
       </c>
       <c r="BL23" s="1">
-        <v>-1046.820000</v>
+        <v>-1046.82</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>69818.090276</v>
+        <v>69818.090276000003</v>
       </c>
       <c r="BO23" s="1">
-        <v>19.393914</v>
+        <v>19.393913999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1993.040000</v>
+        <v>1993.04</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-1801.850000</v>
+        <v>-1801.85</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>69828.788486</v>
+        <v>69828.788486000005</v>
       </c>
       <c r="BT23" s="1">
-        <v>19.396886</v>
+        <v>19.396885999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>2380.010000</v>
+        <v>2380.0100000000002</v>
       </c>
       <c r="BV23" s="1">
-        <v>-2668.040000</v>
+        <v>-2668.04</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>69839.709405</v>
+        <v>69839.709405000001</v>
       </c>
       <c r="BY23" s="1">
-        <v>19.399919</v>
+        <v>19.399919000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>2865.060000</v>
+        <v>2865.06</v>
       </c>
       <c r="CA23" s="1">
-        <v>-3611.060000</v>
+        <v>-3611.06</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>69852.691192</v>
+        <v>69852.691191999998</v>
       </c>
       <c r="CD23" s="1">
-        <v>19.403525</v>
+        <v>19.403524999999998</v>
       </c>
       <c r="CE23" s="1">
-        <v>4279.870000</v>
+        <v>4279.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-5870.190000</v>
+        <v>-5870.19</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>69678.662382</v>
+        <v>69678.662381999995</v>
       </c>
       <c r="B24" s="1">
-        <v>19.355184</v>
+        <v>19.355184000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>1245.460000</v>
+        <v>1245.46</v>
       </c>
       <c r="D24" s="1">
-        <v>-300.024000</v>
+        <v>-300.024</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>69689.467232</v>
+        <v>69689.467231999995</v>
       </c>
       <c r="G24" s="1">
-        <v>19.358185</v>
+        <v>19.358184999999999</v>
       </c>
       <c r="H24" s="1">
-        <v>1269.880000</v>
+        <v>1269.8800000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-260.222000</v>
+        <v>-260.22199999999998</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>69699.914961</v>
+        <v>69699.914961000002</v>
       </c>
       <c r="L24" s="1">
-        <v>19.361087</v>
+        <v>19.361087000000001</v>
       </c>
       <c r="M24" s="1">
-        <v>1305.610000</v>
+        <v>1305.6099999999999</v>
       </c>
       <c r="N24" s="1">
-        <v>-201.420000</v>
+        <v>-201.42</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>69710.077491</v>
+        <v>69710.077491000004</v>
       </c>
       <c r="Q24" s="1">
-        <v>19.363910</v>
+        <v>19.363910000000001</v>
       </c>
       <c r="R24" s="1">
-        <v>1317.860000</v>
+        <v>1317.86</v>
       </c>
       <c r="S24" s="1">
-        <v>-184.083000</v>
+        <v>-184.083</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>69720.523765</v>
+        <v>69720.523765000005</v>
       </c>
       <c r="V24" s="1">
-        <v>19.366812</v>
+        <v>19.366811999999999</v>
       </c>
       <c r="W24" s="1">
-        <v>1331.720000</v>
+        <v>1331.72</v>
       </c>
       <c r="X24" s="1">
-        <v>-171.421000</v>
+        <v>-171.42099999999999</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>69731.040407</v>
+        <v>69731.040406999993</v>
       </c>
       <c r="AA24" s="1">
         <v>19.369733</v>
       </c>
       <c r="AB24" s="1">
-        <v>1349.860000</v>
+        <v>1349.86</v>
       </c>
       <c r="AC24" s="1">
-        <v>-170.036000</v>
+        <v>-170.036</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>69741.523386</v>
+        <v>69741.523386000001</v>
       </c>
       <c r="AF24" s="1">
-        <v>19.372645</v>
+        <v>19.372644999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>1363.530000</v>
+        <v>1363.53</v>
       </c>
       <c r="AH24" s="1">
-        <v>-179.666000</v>
+        <v>-179.666</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>69752.071277</v>
+        <v>69752.071276999995</v>
       </c>
       <c r="AK24" s="1">
-        <v>19.375575</v>
+        <v>19.375575000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>1384.910000</v>
+        <v>1384.91</v>
       </c>
       <c r="AM24" s="1">
-        <v>-209.675000</v>
+        <v>-209.67500000000001</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>69763.107262</v>
+        <v>69763.107262000005</v>
       </c>
       <c r="AP24" s="1">
-        <v>19.378641</v>
+        <v>19.378640999999998</v>
       </c>
       <c r="AQ24" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR24" s="1">
-        <v>-253.203000</v>
+        <v>-253.203</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>69773.914628</v>
+        <v>69773.914627999999</v>
       </c>
       <c r="AU24" s="1">
         <v>19.381643</v>
       </c>
       <c r="AV24" s="1">
-        <v>1432.640000</v>
+        <v>1432.64</v>
       </c>
       <c r="AW24" s="1">
-        <v>-312.512000</v>
+        <v>-312.512</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>69784.515585</v>
+        <v>69784.515585000001</v>
       </c>
       <c r="AZ24" s="1">
-        <v>19.384588</v>
+        <v>19.384588000000001</v>
       </c>
       <c r="BA24" s="1">
-        <v>1452.430000</v>
+        <v>1452.43</v>
       </c>
       <c r="BB24" s="1">
-        <v>-363.989000</v>
+        <v>-363.98899999999998</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>69795.169651</v>
+        <v>69795.169651000004</v>
       </c>
       <c r="BE24" s="1">
-        <v>19.387547</v>
+        <v>19.387547000000001</v>
       </c>
       <c r="BF24" s="1">
-        <v>1539.380000</v>
+        <v>1539.38</v>
       </c>
       <c r="BG24" s="1">
-        <v>-609.010000</v>
+        <v>-609.01</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
-        <v>69806.666915</v>
+        <v>69806.666914999994</v>
       </c>
       <c r="BJ24" s="1">
-        <v>19.390741</v>
+        <v>19.390740999999998</v>
       </c>
       <c r="BK24" s="1">
-        <v>1695.880000</v>
+        <v>1695.88</v>
       </c>
       <c r="BL24" s="1">
-        <v>-1046.810000</v>
+        <v>-1046.81</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>69818.515348</v>
+        <v>69818.515348000001</v>
       </c>
       <c r="BO24" s="1">
-        <v>19.394032</v>
+        <v>19.394031999999999</v>
       </c>
       <c r="BP24" s="1">
-        <v>1992.950000</v>
+        <v>1992.95</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-1801.790000</v>
+        <v>-1801.79</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>69829.216534</v>
+        <v>69829.216534000007</v>
       </c>
       <c r="BT24" s="1">
         <v>19.397005</v>
       </c>
       <c r="BU24" s="1">
-        <v>2380.090000</v>
+        <v>2380.09</v>
       </c>
       <c r="BV24" s="1">
-        <v>-2667.910000</v>
+        <v>-2667.91</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>69840.131496</v>
+        <v>69840.131496000002</v>
       </c>
       <c r="BY24" s="1">
-        <v>19.400037</v>
+        <v>19.400037000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>2864.960000</v>
+        <v>2864.96</v>
       </c>
       <c r="CA24" s="1">
-        <v>-3611.590000</v>
+        <v>-3611.59</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>69853.210534</v>
+        <v>69853.210533999998</v>
       </c>
       <c r="CD24" s="1">
-        <v>19.403670</v>
+        <v>19.403670000000002</v>
       </c>
       <c r="CE24" s="1">
-        <v>4276.270000</v>
+        <v>4276.2700000000004</v>
       </c>
       <c r="CF24" s="1">
-        <v>-5854.660000</v>
+        <v>-5854.66</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>69679.347357</v>
+        <v>69679.347357000006</v>
       </c>
       <c r="B25" s="1">
-        <v>19.355374</v>
+        <v>19.355374000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>1245.670000</v>
+        <v>1245.67</v>
       </c>
       <c r="D25" s="1">
-        <v>-300.127000</v>
+        <v>-300.12700000000001</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>69689.815949</v>
+        <v>69689.815948999996</v>
       </c>
       <c r="G25" s="1">
-        <v>19.358282</v>
+        <v>19.358281999999999</v>
       </c>
       <c r="H25" s="1">
-        <v>1269.810000</v>
+        <v>1269.81</v>
       </c>
       <c r="I25" s="1">
-        <v>-260.842000</v>
+        <v>-260.84199999999998</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>69700.263153</v>
+        <v>69700.263153000007</v>
       </c>
       <c r="L25" s="1">
-        <v>19.361184</v>
+        <v>19.361184000000002</v>
       </c>
       <c r="M25" s="1">
-        <v>1305.580000</v>
+        <v>1305.58</v>
       </c>
       <c r="N25" s="1">
-        <v>-201.540000</v>
+        <v>-201.54</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>69710.424724</v>
+        <v>69710.424723999997</v>
       </c>
       <c r="Q25" s="1">
-        <v>19.364007</v>
+        <v>19.364007000000001</v>
       </c>
       <c r="R25" s="1">
-        <v>1317.920000</v>
+        <v>1317.92</v>
       </c>
       <c r="S25" s="1">
-        <v>-184.155000</v>
+        <v>-184.155</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>69720.868454</v>
+        <v>69720.868453999996</v>
       </c>
       <c r="V25" s="1">
-        <v>19.366908</v>
+        <v>19.366907999999999</v>
       </c>
       <c r="W25" s="1">
-        <v>1331.670000</v>
+        <v>1331.67</v>
       </c>
       <c r="X25" s="1">
-        <v>-171.708000</v>
+        <v>-171.708</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>69731.705544</v>
+        <v>69731.705543999997</v>
       </c>
       <c r="AA25" s="1">
-        <v>19.369918</v>
+        <v>19.369917999999998</v>
       </c>
       <c r="AB25" s="1">
-        <v>1349.890000</v>
+        <v>1349.89</v>
       </c>
       <c r="AC25" s="1">
-        <v>-170.098000</v>
+        <v>-170.09800000000001</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>69742.398976</v>
+        <v>69742.398975999997</v>
       </c>
       <c r="AF25" s="1">
-        <v>19.372889</v>
+        <v>19.372889000000001</v>
       </c>
       <c r="AG25" s="1">
-        <v>1363.420000</v>
+        <v>1363.42</v>
       </c>
       <c r="AH25" s="1">
-        <v>-179.794000</v>
+        <v>-179.79400000000001</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>69752.455212</v>
+        <v>69752.455212000001</v>
       </c>
       <c r="AK25" s="1">
-        <v>19.375682</v>
+        <v>19.375682000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM25" s="1">
-        <v>-209.688000</v>
+        <v>-209.68799999999999</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>69763.496622</v>
+        <v>69763.496622000006</v>
       </c>
       <c r="AP25" s="1">
-        <v>19.378749</v>
+        <v>19.378748999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>1407.360000</v>
+        <v>1407.36</v>
       </c>
       <c r="AR25" s="1">
-        <v>-253.155000</v>
+        <v>-253.155</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>69774.281136</v>
+        <v>69774.281136000005</v>
       </c>
       <c r="AU25" s="1">
-        <v>19.381745</v>
+        <v>19.381744999999999</v>
       </c>
       <c r="AV25" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW25" s="1">
-        <v>-312.504000</v>
+        <v>-312.50400000000002</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>69784.872737</v>
+        <v>69784.872736999998</v>
       </c>
       <c r="AZ25" s="1">
         <v>19.384687</v>
       </c>
       <c r="BA25" s="1">
-        <v>1452.410000</v>
+        <v>1452.41</v>
       </c>
       <c r="BB25" s="1">
-        <v>-363.997000</v>
+        <v>-363.99700000000001</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>69795.532724</v>
+        <v>69795.532724000004</v>
       </c>
       <c r="BE25" s="1">
-        <v>19.387648</v>
+        <v>19.387647999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1539.390000</v>
+        <v>1539.39</v>
       </c>
       <c r="BG25" s="1">
-        <v>-608.974000</v>
+        <v>-608.97400000000005</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>69807.090035</v>
+        <v>69807.090035000001</v>
       </c>
       <c r="BJ25" s="1">
-        <v>19.390858</v>
+        <v>19.390858000000001</v>
       </c>
       <c r="BK25" s="1">
-        <v>1695.910000</v>
+        <v>1695.91</v>
       </c>
       <c r="BL25" s="1">
-        <v>-1046.770000</v>
+        <v>-1046.77</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>69818.910661</v>
+        <v>69818.910661000002</v>
       </c>
       <c r="BO25" s="1">
-        <v>19.394142</v>
+        <v>19.394141999999999</v>
       </c>
       <c r="BP25" s="1">
-        <v>1992.990000</v>
+        <v>1992.99</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-1801.700000</v>
+        <v>-1801.7</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>69829.623750</v>
+        <v>69829.623749999999</v>
       </c>
       <c r="BT25" s="1">
-        <v>19.397118</v>
+        <v>19.397117999999999</v>
       </c>
       <c r="BU25" s="1">
-        <v>2379.760000</v>
+        <v>2379.7600000000002</v>
       </c>
       <c r="BV25" s="1">
-        <v>-2667.750000</v>
+        <v>-2667.75</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>69840.554088</v>
+        <v>69840.554088000004</v>
       </c>
       <c r="BY25" s="1">
-        <v>19.400154</v>
+        <v>19.400154000000001</v>
       </c>
       <c r="BZ25" s="1">
-        <v>2865.350000</v>
+        <v>2865.35</v>
       </c>
       <c r="CA25" s="1">
-        <v>-3611.130000</v>
+        <v>-3611.13</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>69853.725845</v>
+        <v>69853.725844999994</v>
       </c>
       <c r="CD25" s="1">
         <v>19.403813</v>
       </c>
       <c r="CE25" s="1">
-        <v>4260.010000</v>
+        <v>4260.01</v>
       </c>
       <c r="CF25" s="1">
-        <v>-5861.730000</v>
+        <v>-5861.73</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>69679.691084</v>
+        <v>69679.691084000006</v>
       </c>
       <c r="B26" s="1">
-        <v>19.355470</v>
+        <v>19.35547</v>
       </c>
       <c r="C26" s="1">
-        <v>1245.520000</v>
+        <v>1245.52</v>
       </c>
       <c r="D26" s="1">
-        <v>-299.947000</v>
+        <v>-299.947</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>69690.161134</v>
+        <v>69690.161133999994</v>
       </c>
       <c r="G26" s="1">
-        <v>19.358378</v>
+        <v>19.358377999999998</v>
       </c>
       <c r="H26" s="1">
-        <v>1270.210000</v>
+        <v>1270.21</v>
       </c>
       <c r="I26" s="1">
-        <v>-259.517000</v>
+        <v>-259.517</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>69700.610862</v>
+        <v>69700.610862000001</v>
       </c>
       <c r="L26" s="1">
-        <v>19.361281</v>
+        <v>19.361281000000002</v>
       </c>
       <c r="M26" s="1">
-        <v>1305.220000</v>
+        <v>1305.22</v>
       </c>
       <c r="N26" s="1">
-        <v>-201.415000</v>
+        <v>-201.41499999999999</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>69711.084970</v>
+        <v>69711.084969999996</v>
       </c>
       <c r="Q26" s="1">
-        <v>19.364190</v>
+        <v>19.364190000000001</v>
       </c>
       <c r="R26" s="1">
-        <v>1317.750000</v>
+        <v>1317.75</v>
       </c>
       <c r="S26" s="1">
-        <v>-184.188000</v>
+        <v>-184.18799999999999</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>69721.516724</v>
+        <v>69721.516724000001</v>
       </c>
       <c r="V26" s="1">
-        <v>19.367088</v>
+        <v>19.367087999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>1331.500000</v>
+        <v>1331.5</v>
       </c>
       <c r="X26" s="1">
-        <v>-171.638000</v>
+        <v>-171.63800000000001</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>69732.084982</v>
       </c>
       <c r="AA26" s="1">
-        <v>19.370024</v>
+        <v>19.370024000000001</v>
       </c>
       <c r="AB26" s="1">
-        <v>1349.880000</v>
+        <v>1349.88</v>
       </c>
       <c r="AC26" s="1">
-        <v>-170.138000</v>
+        <v>-170.13800000000001</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>69742.554545</v>
+        <v>69742.554545000006</v>
       </c>
       <c r="AF26" s="1">
-        <v>19.372932</v>
+        <v>19.372931999999999</v>
       </c>
       <c r="AG26" s="1">
-        <v>1363.500000</v>
+        <v>1363.5</v>
       </c>
       <c r="AH26" s="1">
-        <v>-179.600000</v>
+        <v>-179.6</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>69752.803402</v>
+        <v>69752.803402000005</v>
       </c>
       <c r="AK26" s="1">
-        <v>19.375779</v>
+        <v>19.375779000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>1384.940000</v>
+        <v>1384.94</v>
       </c>
       <c r="AM26" s="1">
-        <v>-209.652000</v>
+        <v>-209.65199999999999</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>69763.855725</v>
+        <v>69763.855725000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>19.378849</v>
+        <v>19.378848999999999</v>
       </c>
       <c r="AQ26" s="1">
-        <v>1407.330000</v>
+        <v>1407.33</v>
       </c>
       <c r="AR26" s="1">
-        <v>-253.156000</v>
+        <v>-253.15600000000001</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>69774.645928</v>
+        <v>69774.645927999998</v>
       </c>
       <c r="AU26" s="1">
-        <v>19.381846</v>
+        <v>19.381845999999999</v>
       </c>
       <c r="AV26" s="1">
-        <v>1432.630000</v>
+        <v>1432.63</v>
       </c>
       <c r="AW26" s="1">
-        <v>-312.536000</v>
+        <v>-312.536</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>69785.286406</v>
+        <v>69785.286405999999</v>
       </c>
       <c r="AZ26" s="1">
-        <v>19.384802</v>
+        <v>19.384802000000001</v>
       </c>
       <c r="BA26" s="1">
-        <v>1452.450000</v>
+        <v>1452.45</v>
       </c>
       <c r="BB26" s="1">
-        <v>-363.972000</v>
+        <v>-363.97199999999998</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>69796.258369</v>
+        <v>69796.258369000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>19.387850</v>
+        <v>19.38785</v>
       </c>
       <c r="BF26" s="1">
-        <v>1539.380000</v>
+        <v>1539.38</v>
       </c>
       <c r="BG26" s="1">
-        <v>-608.996000</v>
+        <v>-608.99599999999998</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>69807.413928</v>
+        <v>69807.413927999994</v>
       </c>
       <c r="BJ26" s="1">
-        <v>19.390948</v>
+        <v>19.390948000000002</v>
       </c>
       <c r="BK26" s="1">
-        <v>1695.900000</v>
+        <v>1695.9</v>
       </c>
       <c r="BL26" s="1">
-        <v>-1046.800000</v>
+        <v>-1046.8</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>69819.329315</v>
+        <v>69819.329314999995</v>
       </c>
       <c r="BO26" s="1">
-        <v>19.394258</v>
+        <v>19.394258000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1992.970000</v>
+        <v>1992.97</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-1801.730000</v>
+        <v>-1801.73</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>69830.065188</v>
+        <v>69830.065187999993</v>
       </c>
       <c r="BT26" s="1">
-        <v>19.397240</v>
+        <v>19.39724</v>
       </c>
       <c r="BU26" s="1">
-        <v>2379.860000</v>
+        <v>2379.86</v>
       </c>
       <c r="BV26" s="1">
-        <v>-2667.930000</v>
+        <v>-2667.93</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>69840.981675</v>
+        <v>69840.981675000003</v>
       </c>
       <c r="BY26" s="1">
-        <v>19.400273</v>
+        <v>19.400272999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>2865.390000</v>
+        <v>2865.39</v>
       </c>
       <c r="CA26" s="1">
-        <v>-3611.030000</v>
+        <v>-3611.03</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>69854.247173</v>
+        <v>69854.247172999996</v>
       </c>
       <c r="CD26" s="1">
-        <v>19.403958</v>
+        <v>19.403957999999999</v>
       </c>
       <c r="CE26" s="1">
-        <v>4269.710000</v>
+        <v>4269.71</v>
       </c>
       <c r="CF26" s="1">
-        <v>-5875.480000</v>
+        <v>-5875.48</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>